--- a/WIP/Users/HuyenPT/UC/List of UseCase.xlsx
+++ b/WIP/Users/HuyenPT/UC/List of UseCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>Use Case No.</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>Gửi yêu cầu tham gia vào một nhóm: Sau khi người dùng gửi yêu cầu, sẽ phải chờ quản trị viên của nhóm đó đồng ý yêu cầu vào nhóm.</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>Rate a book</t>
@@ -485,6 +482,12 @@
   </si>
   <si>
     <t>Bỏ thích một bình luận</t>
+  </si>
+  <si>
+    <t>Book Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manage book</t>
   </si>
 </sst>
 </file>
@@ -641,107 +644,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1046,7 +1049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1073,717 +1078,719 @@
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="6"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="D10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="D12" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="7"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="16"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="6"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
+      <c r="D23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="6"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="6"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="6"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="6"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
-      <c r="D10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="7"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="F27" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="33"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="7"/>
+      <c r="D30" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C31" s="7"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="7"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C33" s="7"/>
+      <c r="D33" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="7"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="7"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20"/>
+    </row>
+    <row r="37" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C37" s="6"/>
+      <c r="D37" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="6"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C39" s="6"/>
+      <c r="D39" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C40" s="6"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="6"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="6"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C43" s="6"/>
+      <c r="D43" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="6"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="6"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20"/>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="6"/>
+      <c r="D47" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C48" s="6"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C49" s="7"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C50" s="6"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="6"/>
+      <c r="D52" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="6"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="6"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C55" s="6"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C56" s="6"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="7"/>
-      <c r="D12" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="7"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="8"/>
-      <c r="D16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="13"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="10"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="9"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="8"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="8"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="8"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="8"/>
-      <c r="D23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="8"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="8"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="8"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="8"/>
-      <c r="D28" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="13"/>
-      <c r="D30" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C31" s="13"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="13"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C33" s="13"/>
-      <c r="D33" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="13"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="13"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="35"/>
-    </row>
-    <row r="37" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C37" s="8"/>
-      <c r="D37" s="10" t="s">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="6"/>
+      <c r="D57" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="6"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="6"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C60" s="6"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" s="6"/>
+      <c r="D61" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="6"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C63" s="6"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="6"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="6"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" s="6"/>
+      <c r="D66" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67" s="6"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68" s="6"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C69" s="7"/>
+      <c r="D69" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C70" s="14"/>
+      <c r="D70" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="8"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C39" s="8"/>
-      <c r="D39" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C40" s="8"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="8"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="8"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C43" s="8"/>
-      <c r="D43" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="8"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="35"/>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="8"/>
-      <c r="D52" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="8"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="8"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C55" s="8"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C56" s="8"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="8"/>
-      <c r="D57" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="8"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="8"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C60" s="8"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="8"/>
-      <c r="D61" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="8"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="8"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="8"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="8"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F65" s="7" t="s">
+      <c r="F71" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C74" s="6"/>
+      <c r="D74" s="13" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="8"/>
-      <c r="D66" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="8"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="8"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="13"/>
-      <c r="D69" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F69" s="7"/>
-    </row>
-    <row r="70" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C70" s="10"/>
-      <c r="D70" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F70" s="17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F71" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="73" spans="3:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C74" s="8"/>
-      <c r="D74" s="21" t="s">
+      <c r="E74" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="F74" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F74" s="17" t="s">
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C75" s="6"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="8"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="17" t="s">
+      <c r="F75" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="F75" s="17" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.25">
@@ -1949,7 +1956,19 @@
       <c r="F102"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="D74:D75"/>
     <mergeCell ref="D23:D27"/>
     <mergeCell ref="C51:F51"/>
@@ -1964,19 +1983,8 @@
     <mergeCell ref="C46:F46"/>
     <mergeCell ref="C70:C73"/>
     <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="D16:D22"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="C18:C19"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="D33:D35"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D30:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WIP/Users/HuyenPT/UC/List of UseCase.xlsx
+++ b/WIP/Users/HuyenPT/UC/List of UseCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="198">
   <si>
     <t>Use Case No.</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Glossary</t>
   </si>
   <si>
-    <t>Account Management Module</t>
-  </si>
-  <si>
     <t>READER/AUTHOR MODULE</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>Đăng xuất</t>
   </si>
   <si>
-    <t>Register</t>
-  </si>
-  <si>
     <t>Edit profie</t>
   </si>
   <si>
@@ -84,12 +78,6 @@
     <t>Delete comment</t>
   </si>
   <si>
-    <t>Manage post</t>
-  </si>
-  <si>
-    <t>Manage comment</t>
-  </si>
-  <si>
     <t>Xóa bài đăng</t>
   </si>
   <si>
@@ -111,9 +99,6 @@
     <t>Thích một bình luận</t>
   </si>
   <si>
-    <t>Interactions Management Module</t>
-  </si>
-  <si>
     <t>Follow other account</t>
   </si>
   <si>
@@ -126,9 +111,6 @@
     <t xml:space="preserve">Send message to other account </t>
   </si>
   <si>
-    <t>Group Management Module</t>
-  </si>
-  <si>
     <t>Create a group</t>
   </si>
   <si>
@@ -165,9 +147,6 @@
     <t>Create group posts</t>
   </si>
   <si>
-    <t>Manage group post</t>
-  </si>
-  <si>
     <t>Edit group posts</t>
   </si>
   <si>
@@ -219,18 +198,9 @@
     <t>Báo cáo vi phạm về một nhóm</t>
   </si>
   <si>
-    <t>Manage group members</t>
-  </si>
-  <si>
-    <t>Search book/author/other account</t>
-  </si>
-  <si>
     <t>Tìm kiếm sách/tác giả/người dùng khác</t>
   </si>
   <si>
-    <t>Manage user account</t>
-  </si>
-  <si>
     <t xml:space="preserve">Search user </t>
   </si>
   <si>
@@ -264,9 +234,6 @@
     <t>Hủy yêu cầu về báo cáo vi phạm</t>
   </si>
   <si>
-    <t>Manage book</t>
-  </si>
-  <si>
     <t>Add new book</t>
   </si>
   <si>
@@ -285,9 +252,6 @@
     <t>Chấp nhận/hủy yêu cầu về thêm sách mới</t>
   </si>
   <si>
-    <t>Manage slides</t>
-  </si>
-  <si>
     <t>Delete sildes</t>
   </si>
   <si>
@@ -306,9 +270,6 @@
     <t>Add new slides</t>
   </si>
   <si>
-    <t>View statistics</t>
-  </si>
-  <si>
     <t>Thêm nhà xuất bản</t>
   </si>
   <si>
@@ -324,9 +285,6 @@
     <t>Accept/decline request about creating author account</t>
   </si>
   <si>
-    <t>Suggest book/author</t>
-  </si>
-  <si>
     <t>Add new publishers</t>
   </si>
   <si>
@@ -342,15 +300,6 @@
     <t>Đặt lại mật khẩu</t>
   </si>
   <si>
-    <t>Interact with other accounts</t>
-  </si>
-  <si>
-    <t>Interact with groups</t>
-  </si>
-  <si>
-    <t>Manage group</t>
-  </si>
-  <si>
     <t>View statistic about authors</t>
   </si>
   <si>
@@ -375,9 +324,6 @@
     <t>Thay đổi thứ tự hiển thị slider ảnh trên trang giới thiệu</t>
   </si>
   <si>
-    <t>Manage Group</t>
-  </si>
-  <si>
     <t>Band a group</t>
   </si>
   <si>
@@ -390,18 +336,9 @@
     <t>gỡ bỏ lệnh cấm nhóm</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Manage Profile</t>
-  </si>
-  <si>
     <t>Thay đổi ảnh đại diện, ảnh bìa</t>
   </si>
   <si>
-    <t>Post Management Module</t>
-  </si>
-  <si>
     <t>Create a post</t>
   </si>
   <si>
@@ -412,12 +349,6 @@
   </si>
   <si>
     <t>Unlike a post</t>
-  </si>
-  <si>
-    <t>Notification</t>
-  </si>
-  <si>
-    <t>Get notification</t>
   </si>
   <si>
     <t>Người dùng nhận được thông báo khi:
@@ -446,12 +377,6 @@
     <t>Thêm thể loại sách</t>
   </si>
   <si>
-    <t>Manage publishers</t>
-  </si>
-  <si>
-    <t>Manage Authors</t>
-  </si>
-  <si>
     <t>Add Authors</t>
   </si>
   <si>
@@ -484,10 +409,223 @@
     <t>Bỏ thích một bình luận</t>
   </si>
   <si>
-    <t>Book Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Manage book</t>
+    <t>Account Management</t>
+  </si>
+  <si>
+    <t>UC002</t>
+  </si>
+  <si>
+    <t>UC003</t>
+  </si>
+  <si>
+    <t>UC004</t>
+  </si>
+  <si>
+    <t>UC005</t>
+  </si>
+  <si>
+    <t>UC006</t>
+  </si>
+  <si>
+    <t>UC007</t>
+  </si>
+  <si>
+    <t>Get Notification</t>
+  </si>
+  <si>
+    <t>Interactions</t>
+  </si>
+  <si>
+    <t>Publishers Management</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Groups Management</t>
+  </si>
+  <si>
+    <t>Sliders Management</t>
+  </si>
+  <si>
+    <t>Books Management</t>
+  </si>
+  <si>
+    <t>User Accounts Management</t>
+  </si>
+  <si>
+    <t>Posts Management</t>
+  </si>
+  <si>
+    <t>UC008</t>
+  </si>
+  <si>
+    <t>UC009</t>
+  </si>
+  <si>
+    <t>UC010</t>
+  </si>
+  <si>
+    <t>UC011</t>
+  </si>
+  <si>
+    <t>UC012</t>
+  </si>
+  <si>
+    <t>UC013</t>
+  </si>
+  <si>
+    <t>UC014</t>
+  </si>
+  <si>
+    <t>UC015</t>
+  </si>
+  <si>
+    <t>UC016</t>
+  </si>
+  <si>
+    <t>UC017</t>
+  </si>
+  <si>
+    <t>UC018</t>
+  </si>
+  <si>
+    <t>UC019</t>
+  </si>
+  <si>
+    <t>UC020</t>
+  </si>
+  <si>
+    <t>UC021</t>
+  </si>
+  <si>
+    <t>UC022</t>
+  </si>
+  <si>
+    <t>UC023</t>
+  </si>
+  <si>
+    <t>UC024</t>
+  </si>
+  <si>
+    <t>UC025</t>
+  </si>
+  <si>
+    <t>UC026</t>
+  </si>
+  <si>
+    <t>UC027</t>
+  </si>
+  <si>
+    <t>UC028</t>
+  </si>
+  <si>
+    <t>UC029</t>
+  </si>
+  <si>
+    <t>UC030</t>
+  </si>
+  <si>
+    <t>UC031</t>
+  </si>
+  <si>
+    <t>UC032</t>
+  </si>
+  <si>
+    <t>UC033</t>
+  </si>
+  <si>
+    <t>UC034</t>
+  </si>
+  <si>
+    <t>UC035</t>
+  </si>
+  <si>
+    <t>UC036</t>
+  </si>
+  <si>
+    <t>UC037</t>
+  </si>
+  <si>
+    <t>UC038</t>
+  </si>
+  <si>
+    <t>UC039</t>
+  </si>
+  <si>
+    <t>UC040</t>
+  </si>
+  <si>
+    <t>UC041</t>
+  </si>
+  <si>
+    <t>UC042</t>
+  </si>
+  <si>
+    <t>UC043</t>
+  </si>
+  <si>
+    <t>UC044</t>
+  </si>
+  <si>
+    <t>UC045</t>
+  </si>
+  <si>
+    <t>UC046</t>
+  </si>
+  <si>
+    <t>UC047</t>
+  </si>
+  <si>
+    <t>UC048</t>
+  </si>
+  <si>
+    <t>UC049</t>
+  </si>
+  <si>
+    <t>UC050</t>
+  </si>
+  <si>
+    <t>UC051</t>
+  </si>
+  <si>
+    <t>UC052</t>
+  </si>
+  <si>
+    <t>UC053</t>
+  </si>
+  <si>
+    <t>UC054</t>
+  </si>
+  <si>
+    <t>UC055</t>
+  </si>
+  <si>
+    <t>UC056</t>
+  </si>
+  <si>
+    <t>UC057</t>
+  </si>
+  <si>
+    <t>UC058</t>
+  </si>
+  <si>
+    <t>UC059</t>
+  </si>
+  <si>
+    <t>TÌm kiếm người dùng</t>
+  </si>
+  <si>
+    <t>Bỏ thích một bài đăng</t>
+  </si>
+  <si>
+    <t>Thêm tác giả</t>
+  </si>
+  <si>
+    <t>View suggested books/authors</t>
+  </si>
+  <si>
+    <t>Search book/author/other account/group</t>
   </si>
 </sst>
 </file>
@@ -532,7 +670,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -629,11 +767,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -653,98 +800,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1047,18 +1167,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:F102"/>
+  <dimension ref="C5:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.5703125" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1078,720 +1196,817 @@
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>124</v>
-      </c>
+      <c r="C8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="19"/>
       <c r="E8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="6"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="19"/>
       <c r="E9" s="5" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
-      <c r="D10" s="14" t="s">
+      <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="5" t="s">
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C27" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C29" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C32" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="28"/>
+    </row>
+    <row r="33" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C33" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C35" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C36" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C39" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C43" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C44" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C45" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C50" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C51" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" s="20"/>
+      <c r="E51" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C56" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="E56" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="5"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
-      <c r="D12" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="5"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="5"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="6"/>
-      <c r="D16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="7"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="16"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="6"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="6"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="6"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="6"/>
-      <c r="D23" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="6"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="6"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="6"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="6"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="7"/>
-      <c r="D30" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C31" s="7"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="7"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C33" s="7"/>
-      <c r="D33" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="7"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="7"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C37" s="6"/>
-      <c r="D37" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="6"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C39" s="6"/>
-      <c r="D39" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C40" s="6"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="6"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="6"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C43" s="6"/>
-      <c r="D43" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="6"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="6"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="20"/>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="6"/>
-      <c r="D47" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C48" s="6"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C49" s="7"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C50" s="6"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F50" s="8" t="s">
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="12" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="6"/>
-      <c r="D52" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="6"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="6"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C55" s="6"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C56" s="6"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="6"/>
-      <c r="D57" s="14" t="s">
-        <v>82</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>83</v>
       </c>
       <c r="F57" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C63" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" s="20"/>
+      <c r="E64" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="6"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="6"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C60" s="6"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="6"/>
-      <c r="D61" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E61" s="5" t="s">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" s="25"/>
+      <c r="E66" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C67" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="6"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F62" s="5" t="s">
+      <c r="F67" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="6"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="6"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="6"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="6"/>
-      <c r="D66" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F66" s="5" t="s">
+      <c r="F68" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="6"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="6"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="7"/>
-      <c r="D69" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C70" s="14"/>
-      <c r="D70" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="73" spans="3:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>146</v>
-      </c>
+      <c r="F70" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C74" s="6"/>
-      <c r="D74" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="6"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>123</v>
-      </c>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C76"/>
@@ -1925,66 +2140,25 @@
       <c r="E97"/>
       <c r="F97"/>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-    </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-    </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-    </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
-    </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
-    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="D47:D50"/>
+  <mergeCells count="17">
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="D42:D45"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="D16:D22"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="D61:D65"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="D14:D25"/>
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="D33:D41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WIP/Users/HuyenPT/UC/List of UseCase.xlsx
+++ b/WIP/Users/HuyenPT/UC/List of UseCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="196">
   <si>
     <t>Use Case No.</t>
   </si>
@@ -316,12 +316,6 @@
   </si>
   <si>
     <t>Hiển thị các slide trên trang giới thiệu</t>
-  </si>
-  <si>
-    <t>Edit index of slides</t>
-  </si>
-  <si>
-    <t>Thay đổi thứ tự hiển thị slider ảnh trên trang giới thiệu</t>
   </si>
   <si>
     <t>Band a group</t>
@@ -610,9 +604,6 @@
     <t>UC058</t>
   </si>
   <si>
-    <t>UC059</t>
-  </si>
-  <si>
     <t>TÌm kiếm người dùng</t>
   </si>
   <si>
@@ -626,6 +617,9 @@
   </si>
   <si>
     <t>Search book/author/other account/group</t>
+  </si>
+  <si>
+    <t>GUEST MODULE</t>
   </si>
 </sst>
 </file>
@@ -670,7 +664,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -776,11 +770,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -815,13 +829,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -834,15 +875,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -854,17 +886,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1196,686 +1222,682 @@
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="16"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="6" t="s">
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C30" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C33" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="5" t="s">
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C34" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C36" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C37" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C40" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C44" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" s="22"/>
+      <c r="E44" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F44" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C45" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="10" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C27" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C29" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C32" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32" s="28"/>
-    </row>
-    <row r="33" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C33" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C35" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C36" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C39" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C43" s="6" t="s">
+      <c r="F45" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C46" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="5" t="s">
+      <c r="D46" s="16"/>
+      <c r="E46" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="6" t="s">
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C45" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" s="5" t="s">
+      <c r="D48" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="F48" s="5" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D49" s="19"/>
+        <v>171</v>
+      </c>
+      <c r="D49" s="20"/>
       <c r="E49" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="20"/>
+      <c r="E50" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C50" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="51" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C51" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C52" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F52" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" s="5" t="s">
+    <row r="53" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F53" s="5" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D54" s="13"/>
+        <v>176</v>
+      </c>
+      <c r="D54" s="22"/>
       <c r="E54" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D55" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="D55" s="22"/>
       <c r="E55" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" s="22"/>
+      <c r="E56" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F56" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C56" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="7" t="s">
+    <row r="57" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C57" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C58" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D58" s="13"/>
+        <v>180</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="E58" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C59" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D59" s="13"/>
+        <v>181</v>
+      </c>
+      <c r="D59" s="22"/>
       <c r="E59" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D60" s="13"/>
+        <v>182</v>
+      </c>
+      <c r="D60" s="22"/>
       <c r="E60" s="5" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D61" s="14"/>
+        <v>183</v>
+      </c>
+      <c r="D61" s="22"/>
       <c r="E61" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>134</v>
+      <c r="C62" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>89</v>
@@ -1885,10 +1907,10 @@
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D63" s="19"/>
+      <c r="C63" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" s="20"/>
       <c r="E63" s="5" t="s">
         <v>90</v>
       </c>
@@ -1897,10 +1919,10 @@
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D64" s="20"/>
+      <c r="C64" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="21"/>
       <c r="E64" s="5" t="s">
         <v>91</v>
       </c>
@@ -1909,73 +1931,73 @@
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>136</v>
+      <c r="C65" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="E65" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="17"/>
+      <c r="E66" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F66" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
     <row r="67" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C67" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>135</v>
+      <c r="C67" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>95</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
       <c r="E68" s="7" t="s">
         <v>94</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
       <c r="E69" s="7" t="s">
         <v>96</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="3:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
       <c r="E70" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.25">
@@ -2141,24 +2163,25 @@
       <c r="F97"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="D62:D64"/>
+  <mergeCells count="18">
     <mergeCell ref="C67:C70"/>
     <mergeCell ref="D67:D70"/>
-    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="D43:D46"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="D14:D25"/>
-    <mergeCell ref="D26:D32"/>
-    <mergeCell ref="D33:D41"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="D15:D26"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="D34:D42"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="D62:D64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WIP/Users/HuyenPT/UC/List of UseCase.xlsx
+++ b/WIP/Users/HuyenPT/UC/List of UseCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="186">
   <si>
     <t>Use Case No.</t>
   </si>
@@ -51,12 +51,6 @@
     <t>Chỉnh sửa thông tin cá nhân</t>
   </si>
   <si>
-    <t>Edit caption</t>
-  </si>
-  <si>
-    <t>Edit book tag</t>
-  </si>
-  <si>
     <t>Chỉnh sửa phần nội dung giới thiệu sách</t>
   </si>
   <si>
@@ -69,12 +63,6 @@
     <t>Comment on a post</t>
   </si>
   <si>
-    <t>Like a comment</t>
-  </si>
-  <si>
-    <t>Edit comment</t>
-  </si>
-  <si>
     <t>Delete comment</t>
   </si>
   <si>
@@ -90,13 +78,7 @@
     <t>Bình luận về một bài post</t>
   </si>
   <si>
-    <t>Chỉnh sửa bình luận</t>
-  </si>
-  <si>
     <t>Xóa bình luận</t>
-  </si>
-  <si>
-    <t>Thích một bình luận</t>
   </si>
   <si>
     <t>Follow other account</t>
@@ -397,12 +379,6 @@
     <t>UC001</t>
   </si>
   <si>
-    <t>Unlike a comment</t>
-  </si>
-  <si>
-    <t>Bỏ thích một bình luận</t>
-  </si>
-  <si>
     <t>Account Management</t>
   </si>
   <si>
@@ -592,18 +568,6 @@
     <t>UC054</t>
   </si>
   <si>
-    <t>UC055</t>
-  </si>
-  <si>
-    <t>UC056</t>
-  </si>
-  <si>
-    <t>UC057</t>
-  </si>
-  <si>
-    <t>UC058</t>
-  </si>
-  <si>
     <t>TÌm kiếm người dùng</t>
   </si>
   <si>
@@ -620,6 +584,12 @@
   </si>
   <si>
     <t>GUEST MODULE</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Edit post</t>
   </si>
 </sst>
 </file>
@@ -664,7 +634,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -781,20 +751,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -832,64 +793,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1193,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:G97"/>
+  <dimension ref="C5:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1222,51 +1189,53 @@
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
+      <c r="C6" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="31"/>
+      <c r="C7" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>184</v>
+      </c>
       <c r="E7" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="32" t="s">
-        <v>124</v>
+      <c r="C8" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>123</v>
+        <v>117</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>6</v>
@@ -1277,9 +1246,9 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="20"/>
+        <v>118</v>
+      </c>
+      <c r="D11" s="25"/>
       <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1289,10 +1258,10 @@
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="20" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -1301,704 +1270,682 @@
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="28"/>
+        <v>120</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="D14" s="26"/>
       <c r="E14" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="29"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="29"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="16"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="6" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="6" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C27" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
+      <c r="D27" s="25"/>
+      <c r="E27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="6" t="s">
+      <c r="D28" s="25"/>
+      <c r="E28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="6" t="s">
+      <c r="D29" s="25"/>
+      <c r="E29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C30" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="6" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C31" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="6" t="s">
+      <c r="D31" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="6" t="s">
+      <c r="D32" s="28"/>
+      <c r="E32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C33" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="6" t="s">
+      <c r="D33" s="28"/>
+      <c r="E33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C34" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="6" t="s">
+      <c r="D34" s="28"/>
+      <c r="E34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="6" t="s">
+      <c r="D35" s="28"/>
+      <c r="E35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="6" t="s">
+      <c r="D36" s="28"/>
+      <c r="E36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C37" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="6" t="s">
+      <c r="D37" s="28"/>
+      <c r="E37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C30" s="6" t="s">
+      <c r="D38" s="28"/>
+      <c r="E38" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C33" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C34" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C36" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C37" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="22"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C40" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C41" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="28"/>
+      <c r="E41" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C42" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="28"/>
+      <c r="E42" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C43" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" s="29"/>
+      <c r="E43" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="25"/>
+      <c r="E46" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="25"/>
+      <c r="E47" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C48" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C49" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="6" t="s">
+      <c r="D50" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="6" t="s">
+      <c r="D51" s="28"/>
+      <c r="E51" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="6" t="s">
+      <c r="D52" s="28"/>
+      <c r="E52" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C44" s="6" t="s">
+      <c r="D53" s="28"/>
+      <c r="E53" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C54" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C45" s="6" t="s">
+      <c r="D54" s="29"/>
+      <c r="E54" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C46" s="6" t="s">
+      <c r="D55" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C51" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C52" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E53" s="5" t="s">
+      <c r="D56" s="28"/>
+      <c r="E56" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C57" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="7" t="s">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="28"/>
+      <c r="E57" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="C58" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="28"/>
       <c r="E58" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="5" t="s">
+      <c r="F59" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D60" s="22"/>
+      <c r="C60" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" s="25"/>
       <c r="E60" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F60" s="5" t="s">
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" s="26"/>
+      <c r="E61" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E62" s="5" t="s">
+      <c r="C62" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C63" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" s="33"/>
+      <c r="E63" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C64" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="5" t="s">
+      <c r="F64" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="5" t="s">
+      <c r="F66" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D66" s="17"/>
-      <c r="E66" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C67" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="F67" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>119</v>
-      </c>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C71"/>
@@ -2144,44 +2091,29 @@
       <c r="E94"/>
       <c r="F94"/>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-    </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-    </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="D43:D46"/>
+  <mergeCells count="21">
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="D31:D39"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="D50:D54"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="D10:D14"/>
-    <mergeCell ref="D15:D26"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="D34:D42"/>
+    <mergeCell ref="D15:D23"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WIP/Users/HuyenPT/UC/List of UseCase.xlsx
+++ b/WIP/Users/HuyenPT/UC/List of UseCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="234">
   <si>
     <t>Use Case No.</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Đăng xuất</t>
   </si>
   <si>
-    <t>Edit profie</t>
-  </si>
-  <si>
     <t>Chỉnh sửa thông tin cá nhân</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>Edit group profile</t>
   </si>
   <si>
-    <t>Chỉnh sửa thông tin về nhóm</t>
-  </si>
-  <si>
     <t>Create group posts</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>Delete group posts</t>
   </si>
   <si>
-    <t>Tạo nhóm: Người dùng tạo nhóm phải tag một quyển sách/tác giả như là chủ đề của nhóm đó</t>
-  </si>
-  <si>
     <t>Đăng bài trong group: Người dùng không cần tag sách/tác giả</t>
   </si>
   <si>
@@ -192,12 +183,6 @@
     <t>Unban user</t>
   </si>
   <si>
-    <t>Cấm người dùng</t>
-  </si>
-  <si>
-    <t>Gỡ bỏ lệnh cấm</t>
-  </si>
-  <si>
     <t>Register for an author account</t>
   </si>
   <si>
@@ -325,12 +310,6 @@
   </si>
   <si>
     <t>Unlike a post</t>
-  </si>
-  <si>
-    <t>Người dùng nhận được thông báo khi:
-+ Có người thích bài post của mình
-+ Có người bình luận trong bài post của mình
-+ Có người theo dõi mình</t>
   </si>
   <si>
     <t>View details about a book</t>
@@ -590,13 +569,190 @@
   </si>
   <si>
     <t>Edit post</t>
+  </si>
+  <si>
+    <t>Edit personal information</t>
+  </si>
+  <si>
+    <t>Edit avatar and cover photo</t>
+  </si>
+  <si>
+    <t>Register for a normal account (reader)</t>
+  </si>
+  <si>
+    <t>Register for an author account: User must upload an image of their identity card and wait for approve from admin of website.</t>
+  </si>
+  <si>
+    <t>Edit personal information includes name, email, address, date of birth.</t>
+  </si>
+  <si>
+    <t>Reset password</t>
+  </si>
+  <si>
+    <t>Reset password by confirm an auto email.</t>
+  </si>
+  <si>
+    <t>Create a post to introduce about book(s).</t>
+  </si>
+  <si>
+    <t>User has to tag book(s) as the topic of that post.</t>
+  </si>
+  <si>
+    <t>Edit caption and book tags of a created post.</t>
+  </si>
+  <si>
+    <t>Delete posts</t>
+  </si>
+  <si>
+    <t>Like posts</t>
+  </si>
+  <si>
+    <t>Unlike post</t>
+  </si>
+  <si>
+    <t>Unlike posts</t>
+  </si>
+  <si>
+    <t>Delete comments</t>
+  </si>
+  <si>
+    <t>Follow other account to get their new post on new-feed.</t>
+  </si>
+  <si>
+    <t>Send message to other accounts.</t>
+  </si>
+  <si>
+    <t>Report other accounts.</t>
+  </si>
+  <si>
+    <t>Send join-group request. After that, users have to wait admin of that group to add them as members.</t>
+  </si>
+  <si>
+    <t>Leave a group</t>
+  </si>
+  <si>
+    <t>Members can leave a group themselves.</t>
+  </si>
+  <si>
+    <t>Report groups.</t>
+  </si>
+  <si>
+    <t>To create a group, users have to tag a book/author as the topic of that group.</t>
+  </si>
+  <si>
+    <t>Add new members by enter account name.</t>
+  </si>
+  <si>
+    <t>Users can send a request to group and admin have right to accept them as members or not.</t>
+  </si>
+  <si>
+    <t>Set other members in group as admins.</t>
+  </si>
+  <si>
+    <t>Admins of a group van remove other members from their group.</t>
+  </si>
+  <si>
+    <t>Create group posts: Members do not need to tag books or authors.</t>
+  </si>
+  <si>
+    <t>Edit group posts.</t>
+  </si>
+  <si>
+    <t>Delete group posts.</t>
+  </si>
+  <si>
+    <t>Rate a book: the highest score is 5 stars.</t>
+  </si>
+  <si>
+    <t>View details about a book: image, description, rating and comments of readers about that book.</t>
+  </si>
+  <si>
+    <t>Search user</t>
+  </si>
+  <si>
+    <t>If an account is reported, admin of page has right to ban that account of decline the reporting request.</t>
+  </si>
+  <si>
+    <t>Accept/decline request about creating author account from guests.</t>
+  </si>
+  <si>
+    <t>Add new books.</t>
+  </si>
+  <si>
+    <t>Add new Categories.</t>
+  </si>
+  <si>
+    <t>Edit book's information</t>
+  </si>
+  <si>
+    <t>Add new sliders</t>
+  </si>
+  <si>
+    <t>Add new sliders to introduce about website.</t>
+  </si>
+  <si>
+    <t>Delete sliders</t>
+  </si>
+  <si>
+    <t>Delete sliders.</t>
+  </si>
+  <si>
+    <t>Active/de-active a slider</t>
+  </si>
+  <si>
+    <t>Active/de-active slides.</t>
+  </si>
+  <si>
+    <t>Show sliders</t>
+  </si>
+  <si>
+    <t>Display sliders on the login page.</t>
+  </si>
+  <si>
+    <t>Edit publishers' information</t>
+  </si>
+  <si>
+    <t>When a group is reported, admin of page can band it.</t>
+  </si>
+  <si>
+    <t>Users get notification when:
++ Other users like their post
++ Other users comment on their post
++ Other users follow their account</t>
+  </si>
+  <si>
+    <t>BSN system suggests books/authors base on the trend of reading:
++ Book:  by access times
++ Author: by number of followers</t>
+  </si>
+  <si>
+    <t>View statistic about users:
++ number of old accounts
++ number of new accounts</t>
+  </si>
+  <si>
+    <t>View statistic about authors:
++ number of old accounts
++ number of new accounts
++ authors with largest number of followers</t>
+  </si>
+  <si>
+    <t>View statistic about groups:
++ number of old groups
++ number of new groups</t>
+  </si>
+  <si>
+    <t>View statistic about books:
++ number of old books
++ number of new books
++ the book in trend: base on number of access time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,6 +775,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -634,7 +805,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -737,15 +908,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -755,7 +917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -793,10 +955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -815,35 +974,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -858,6 +1017,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,21 +1337,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:G94"/>
+  <dimension ref="C5:K81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="54.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="32" customWidth="1"/>
+    <col min="10" max="10" width="32.5703125" customWidth="1"/>
+    <col min="11" max="11" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1187,55 +1367,101 @@
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="17" t="s">
+      <c r="H5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="H6" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C8" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="17" t="s">
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="H9" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>6</v>
@@ -1243,765 +1469,1320 @@
       <c r="F10" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C11" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="25"/>
+        <v>112</v>
+      </c>
+      <c r="D11" s="22"/>
       <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="H12" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="26"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="6" t="s">
+      <c r="H17" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="26"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C23" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" s="37"/>
+      <c r="J26" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C27" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="37"/>
+      <c r="J27" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="K27" s="38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C29" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="K29" s="38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C30" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="I30" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="5" t="s">
+      <c r="J30" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C31" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C32" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="I32" s="37"/>
+      <c r="J32" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C33" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="I33" s="37"/>
+      <c r="J33" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="38" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C34" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C35" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C36" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="26"/>
+      <c r="E36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="I36" s="37"/>
+      <c r="J36" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" s="37"/>
+      <c r="J37" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" s="38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="22" t="s">
+      <c r="F38" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="H38" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="K38" s="38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C39" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="I39" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="J39" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39" s="38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C40" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="26"/>
+      <c r="E40" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="29"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="29"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="24" t="s">
+      <c r="H40" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="K40" s="38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C41" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="H41" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="I41" s="37"/>
+      <c r="J41" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="K41" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C42" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="E42" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C27" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="F42" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="I42" s="37"/>
+      <c r="J42" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="K42" s="38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C43" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="E43" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="35" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="5" t="s">
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+    </row>
+    <row r="44" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C44" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="I44" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="J44" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K44" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="I45" s="37"/>
+      <c r="J45" s="38" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="3:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C30" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C31" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C33" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C34" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C37" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C41" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C42" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C43" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="6" t="s">
+      <c r="K45" s="38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C46" s="15" t="s">
         <v>158</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="16" t="s">
-        <v>159</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="5" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="16" t="s">
-        <v>160</v>
+        <v>102</v>
+      </c>
+      <c r="H46" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="I46" s="37"/>
+      <c r="J46" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="K46" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C47" s="15" t="s">
+        <v>159</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="5" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C48" s="16" t="s">
-        <v>161</v>
+        <v>174</v>
+      </c>
+      <c r="H47" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="K47" s="38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C48" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="D48" s="25"/>
-      <c r="E48" s="7" t="s">
-        <v>81</v>
+      <c r="E48" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="49" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C49" s="16" t="s">
-        <v>162</v>
+      <c r="H48" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48" s="38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="I49" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="J49" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="K49" s="38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C50" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="I50" s="37"/>
+      <c r="J50" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="K50" s="38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D50" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F50" s="5" t="s">
+      <c r="D51" s="25"/>
+      <c r="E51" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="I51" s="37"/>
+      <c r="J51" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="K51" s="38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C52" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="16" t="s">
+      <c r="H52" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="I52" s="37"/>
+      <c r="J52" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="K52" s="38" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C53" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H53" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="I53" s="37"/>
+      <c r="J53" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="K53" s="38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C54" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="I54" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="J54" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="K54" s="38" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C55" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="22"/>
+      <c r="E55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="I55" s="37"/>
+      <c r="J55" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="K55" s="38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C56" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="23"/>
+      <c r="E56" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="5" t="s">
+      <c r="I56" s="37"/>
+      <c r="J56" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="K56" s="38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C57" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H57" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="K57" s="38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C58" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="32"/>
+      <c r="E58" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H58" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="I58" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="J58" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="K58" s="38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H59" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="I59" s="37"/>
+      <c r="J59" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="K59" s="38" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H60" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="I60" s="37"/>
+      <c r="J60" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="K60" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H61" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="I61" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="J61" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="K61" s="38" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C54" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="16" t="s">
+      <c r="H62" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="16" t="s">
+      <c r="I62" s="37"/>
+      <c r="J62" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="K62" s="38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="H63" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E59" s="5" t="s">
+      <c r="I63" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="J63" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="K63" s="38" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="38"/>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="38"/>
+    </row>
+    <row r="66" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="D61" s="26"/>
-      <c r="E61" s="5" t="s">
+      <c r="K66" s="38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D62" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D63" s="33"/>
-      <c r="E63" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C64" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="D64" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="K67" s="38" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" ht="60" x14ac:dyDescent="0.25">
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68"/>
-    </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H68" s="35"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="K68" s="38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69"/>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70"/>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71"/>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72"/>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73"/>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74"/>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75"/>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76"/>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C78"/>
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78"/>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C79"/>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79"/>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80"/>
@@ -2013,100 +2794,40 @@
       <c r="E81"/>
       <c r="F81"/>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-    </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-    </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-    </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-    </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-    </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
-    </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-    </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-    </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-    </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
-    </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-    </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
-    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="D59:D61"/>
+  <mergeCells count="39">
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="H63:H68"/>
+    <mergeCell ref="I63:I68"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="I49:I53"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="I23:I29"/>
+    <mergeCell ref="I30:I38"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="D54:D56"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D31:D39"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="D30:D36"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="D42:D44"/>
     <mergeCell ref="D45:D49"/>
-    <mergeCell ref="D50:D54"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="E12:E13"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="D10:D14"/>
     <mergeCell ref="D15:D23"/>

--- a/WIP/Users/HuyenPT/UC/List of UseCase.xlsx
+++ b/WIP/Users/HuyenPT/UC/List of UseCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="283">
   <si>
     <t>Use Case No.</t>
   </si>
@@ -304,9 +304,6 @@
   </si>
   <si>
     <t>Đăng bài giới thiệu về một cuốn sách</t>
-  </si>
-  <si>
-    <t>Tag sách: tag 1 và chỉ 1 quyển sách trong bài post</t>
   </si>
   <si>
     <t>Unlike a post</t>
@@ -592,12 +589,6 @@
     <t>Reset password by confirm an auto email.</t>
   </si>
   <si>
-    <t>Create a post to introduce about book(s).</t>
-  </si>
-  <si>
-    <t>User has to tag book(s) as the topic of that post.</t>
-  </si>
-  <si>
     <t>Edit caption and book tags of a created post.</t>
   </si>
   <si>
@@ -607,9 +598,6 @@
     <t>Like posts</t>
   </si>
   <si>
-    <t>Unlike post</t>
-  </si>
-  <si>
     <t>Unlike posts</t>
   </si>
   <si>
@@ -685,15 +673,9 @@
     <t>Edit book's information</t>
   </si>
   <si>
-    <t>Add new sliders</t>
-  </si>
-  <si>
     <t>Add new sliders to introduce about website.</t>
   </si>
   <si>
-    <t>Delete sliders</t>
-  </si>
-  <si>
     <t>Delete sliders.</t>
   </si>
   <si>
@@ -701,9 +683,6 @@
   </si>
   <si>
     <t>Active/de-active slides.</t>
-  </si>
-  <si>
-    <t>Show sliders</t>
   </si>
   <si>
     <t>Display sliders on the login page.</t>
@@ -746,6 +725,175 @@
 + number of old books
 + number of new books
 + the book in trend: base on number of access time</t>
+  </si>
+  <si>
+    <t>Comment on a book</t>
+  </si>
+  <si>
+    <t>Comment about book in its own details page</t>
+  </si>
+  <si>
+    <t>UC055</t>
+  </si>
+  <si>
+    <t>Accept request about creating author account</t>
+  </si>
+  <si>
+    <t>Decline request about creating author account</t>
+  </si>
+  <si>
+    <t>Accept join-group request</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Edit a post</t>
+  </si>
+  <si>
+    <t>Delete a post</t>
+  </si>
+  <si>
+    <t>Like a post</t>
+  </si>
+  <si>
+    <t>Delete a comment</t>
+  </si>
+  <si>
+    <t>Send message</t>
+  </si>
+  <si>
+    <t>Follow user account</t>
+  </si>
+  <si>
+    <t>Report user account</t>
+  </si>
+  <si>
+    <t>Add new members</t>
+  </si>
+  <si>
+    <t>Remove a member</t>
+  </si>
+  <si>
+    <t>Create a group post</t>
+  </si>
+  <si>
+    <t>Edit a group post</t>
+  </si>
+  <si>
+    <t>Like a group post</t>
+  </si>
+  <si>
+    <t>Comment on a group post</t>
+  </si>
+  <si>
+    <t>Delete comment on a group post</t>
+  </si>
+  <si>
+    <t>View a book's details</t>
+  </si>
+  <si>
+    <t>Decline  request about reporting a group</t>
+  </si>
+  <si>
+    <t>Decline  request about reporting an account</t>
+  </si>
+  <si>
+    <t>Add a new book</t>
+  </si>
+  <si>
+    <t>Add a new Category</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Interaction</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Add an author</t>
+  </si>
+  <si>
+    <t>Add a new slider</t>
+  </si>
+  <si>
+    <t>Delete a slider</t>
+  </si>
+  <si>
+    <t>Accept add-book request</t>
+  </si>
+  <si>
+    <t>Decline add-book request</t>
+  </si>
+  <si>
+    <t>Show a slider</t>
+  </si>
+  <si>
+    <t>Add a new publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit publisher' information </t>
+  </si>
+  <si>
+    <t>Delete a publisher</t>
+  </si>
+  <si>
+    <t>View user statistic</t>
+  </si>
+  <si>
+    <t>View author statistic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View group statistic </t>
+  </si>
+  <si>
+    <t>View book statistic</t>
+  </si>
+  <si>
+    <t>Create a post to introduce about book(s).
+User has to tag book(s) as the topic of that post.</t>
+  </si>
+  <si>
+    <t>UC056</t>
+  </si>
+  <si>
+    <t>UC057</t>
+  </si>
+  <si>
+    <t>UC058</t>
+  </si>
+  <si>
+    <t>UC059</t>
+  </si>
+  <si>
+    <t>UC060</t>
+  </si>
+  <si>
+    <t>UC061</t>
+  </si>
+  <si>
+    <t>UC062</t>
+  </si>
+  <si>
+    <t>Edit  group information</t>
+  </si>
+  <si>
+    <t>Edit  group's avatar/cover photo</t>
+  </si>
+  <si>
+    <t>Set group's admin</t>
+  </si>
+  <si>
+    <t>Delete a group post</t>
   </si>
 </sst>
 </file>
@@ -917,7 +1065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -964,6 +1112,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -974,12 +1155,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1018,23 +1193,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1337,9 +1512,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:K81"/>
+  <dimension ref="C5:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" activeCellId="2" sqref="A1 A2 A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1350,7 +1527,7 @@
     <col min="6" max="6" width="54.5703125" style="3" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="32" customWidth="1"/>
-    <col min="10" max="10" width="32.5703125" customWidth="1"/>
+    <col min="10" max="10" width="35.42578125" customWidth="1"/>
     <col min="11" max="11" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1367,39 +1544,39 @@
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="H6" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
+      <c r="C6" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="H6" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C7" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>178</v>
+        <v>107</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>177</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>56</v>
@@ -1407,61 +1584,61 @@
       <c r="F7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="J7" s="38" t="s">
+      <c r="H7" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="J7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="38" t="s">
-        <v>182</v>
+      <c r="K7" s="19" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C8" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="30"/>
+        <v>109</v>
+      </c>
+      <c r="D8" s="39"/>
       <c r="E8" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="38" t="s">
+      <c r="H8" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="43"/>
+      <c r="J8" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="38" t="s">
-        <v>183</v>
+      <c r="K8" s="19" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="H9" s="35" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="H9" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>108</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>6</v>
@@ -1469,1282 +1646,1332 @@
       <c r="F10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="38" t="s">
+      <c r="H10" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="K10" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C11" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="22"/>
+        <v>111</v>
+      </c>
+      <c r="D11" s="31"/>
       <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="38" t="s">
+      <c r="H11" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="43"/>
+      <c r="J11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="22"/>
+        <v>112</v>
+      </c>
+      <c r="D12" s="31"/>
       <c r="E12" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="K12" s="38" t="s">
-        <v>184</v>
+      <c r="H12" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="43"/>
+      <c r="J12" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="22"/>
+        <v>113</v>
+      </c>
+      <c r="D13" s="31"/>
       <c r="E13" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="K13" s="38" t="s">
-        <v>181</v>
+      <c r="H13" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="43"/>
+      <c r="J13" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="23"/>
+        <v>114</v>
+      </c>
+      <c r="D14" s="32"/>
       <c r="E14" s="5" t="s">
         <v>81</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38" t="s">
+      <c r="H14" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="43"/>
+      <c r="J14" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K14" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="K14" s="38" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="24" t="s">
+    </row>
+    <row r="15" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C15" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="I15" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="J15" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="38" t="s">
+      <c r="D16" s="34"/>
+      <c r="E16" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="43"/>
+      <c r="J16" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="35"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="43"/>
+      <c r="J17" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="K17" s="19" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="26"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="7" t="s">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="43"/>
+      <c r="J18" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="43"/>
+      <c r="J19" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="35"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="K17" s="38" t="s">
+      <c r="K19" s="19" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="26"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="I18" s="37"/>
-      <c r="J18" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="38" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="I19" s="37"/>
-      <c r="J19" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="38" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="25"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="5" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="H20" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="K20" s="38" t="s">
-        <v>193</v>
+      <c r="I20" s="43"/>
+      <c r="J20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="25"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="5" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="I21" s="43"/>
+      <c r="J21" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C22" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="25"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="38" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="I22" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C23" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="25"/>
+      <c r="D23" s="30" t="s">
+        <v>116</v>
+      </c>
       <c r="E23" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="I23" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="J23" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="38" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="I23" s="43"/>
+      <c r="J23" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C24" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="36" t="s">
+      <c r="D24" s="31"/>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="38" t="s">
-        <v>196</v>
+      <c r="I24" s="43"/>
+      <c r="J24" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C25" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D25" s="22"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25" s="38" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="I25" s="43"/>
+      <c r="J25" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C26" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="7" t="s">
-        <v>47</v>
+      <c r="D26" s="31"/>
+      <c r="E26" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="I26" s="37"/>
-      <c r="J26" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26" s="38" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="I26" s="43"/>
+      <c r="J26" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C27" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D27" s="22"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="K27" s="38" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="I27" s="43"/>
+      <c r="J27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" ht="60" x14ac:dyDescent="0.25">
       <c r="C28" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D28" s="22"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28" s="38" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="I28" s="43"/>
+      <c r="J28" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C29" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="34"/>
+      <c r="E29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="K29" s="38" t="s">
-        <v>228</v>
+      <c r="I29" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C30" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="25"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="I30" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="J30" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="K30" s="38" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C31" s="15" t="s">
+      <c r="I30" s="47"/>
+      <c r="J30" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="25"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
+      <c r="H31" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" s="47"/>
+      <c r="J31" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="K31" s="22"/>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K31" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C32" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D32" s="25"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H32" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="I32" s="37"/>
-      <c r="J32" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" s="38" t="s">
-        <v>203</v>
+      <c r="I32" s="47"/>
+      <c r="J32" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C33" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="25"/>
+        <v>143</v>
+      </c>
+      <c r="D33" s="34"/>
       <c r="E33" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="36" t="s">
+      <c r="H33" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="I33" s="37"/>
-      <c r="J33" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="K33" s="38" t="s">
-        <v>204</v>
+      <c r="I33" s="47"/>
+      <c r="J33" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C34" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" s="25"/>
+        <v>144</v>
+      </c>
+      <c r="D34" s="34"/>
       <c r="E34" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="36" t="s">
+      <c r="H34" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="I34" s="37"/>
-      <c r="J34" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="K34" s="38" t="s">
-        <v>205</v>
+      <c r="I34" s="47"/>
+      <c r="J34" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C35" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="25"/>
+        <v>145</v>
+      </c>
+      <c r="D35" s="34"/>
       <c r="E35" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="36" t="s">
+      <c r="H35" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I35" s="37"/>
-      <c r="J35" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="K35" s="38" t="s">
-        <v>206</v>
+      <c r="I35" s="47"/>
+      <c r="J35" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C36" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" s="26"/>
+        <v>146</v>
+      </c>
+      <c r="D36" s="35"/>
       <c r="E36" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H36" s="36" t="s">
+      <c r="H36" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="I36" s="37"/>
-      <c r="J36" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="K36" s="38" t="s">
+      <c r="I36" s="47"/>
+      <c r="J36" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="25"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="H37" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" s="47"/>
+      <c r="J37" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="K37" s="22"/>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C38" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="I38" s="47"/>
+      <c r="J38" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="34"/>
+      <c r="E39" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="I39" s="47"/>
+      <c r="J39" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="K39" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="25"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="7"/>
+      <c r="H40" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="I40" s="47"/>
+      <c r="J40" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="K40" s="22"/>
+    </row>
+    <row r="41" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="25"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="7"/>
+      <c r="H41" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I41" s="48"/>
+      <c r="J41" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="K41" s="22"/>
+    </row>
+    <row r="42" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C42" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="34"/>
+      <c r="E42" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I42" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C43" s="16"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="5"/>
+      <c r="H43" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="I43" s="43"/>
+      <c r="J43" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="K43" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="35"/>
+      <c r="E44" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I44" s="43"/>
+      <c r="J44" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="K44" s="19" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" s="24" t="s">
+    <row r="45" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C45" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="H45" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="I45" s="43"/>
+      <c r="J45" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K45" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C46" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="I37" s="37"/>
-      <c r="J37" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="K37" s="38" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H38" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="K38" s="38" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="39" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C39" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="I39" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="J39" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="K39" s="38" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="40" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C40" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H40" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="K40" s="38" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C41" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="H41" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="I41" s="37"/>
-      <c r="J41" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="K41" s="38" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="42" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C42" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="H42" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="I42" s="37"/>
-      <c r="J42" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="K42" s="38" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="43" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C43" s="15" t="s">
+      <c r="F46" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H46" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H43" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-    </row>
-    <row r="44" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H44" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="I44" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="J44" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="K44" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H45" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="I45" s="37"/>
-      <c r="J45" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="K45" s="38" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C46" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H46" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="I46" s="37"/>
-      <c r="J46" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="K46" s="38" t="s">
-        <v>54</v>
+      <c r="I46" s="43"/>
+      <c r="J46" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="5" t="s">
-        <v>103</v>
+        <v>154</v>
+      </c>
+      <c r="D47" s="31"/>
+      <c r="E47" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="H47" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="K47" s="38" t="s">
-        <v>213</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="H47" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
     </row>
     <row r="48" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C48" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="32"/>
+      <c r="E48" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="K48" s="38" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="J48" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="7" t="s">
-        <v>63</v>
+        <v>156</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H49" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="H49" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="I49" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="J49" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="K49" s="38" t="s">
-        <v>215</v>
+      <c r="I49" s="43"/>
+      <c r="J49" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K49" s="19" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C50" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>121</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D50" s="34"/>
       <c r="E50" s="5" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H50" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="H50" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="I50" s="37"/>
-      <c r="J50" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="K50" s="38" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="51" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="43"/>
+      <c r="J50" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C51" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="D51" s="25"/>
+        <v>158</v>
+      </c>
+      <c r="D51" s="34"/>
       <c r="E51" s="5" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H51" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="H51" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="I51" s="37"/>
-      <c r="J51" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="K51" s="38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C52" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H52" s="36" t="s">
+      <c r="I51" s="43"/>
+      <c r="J51" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C52" s="25"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="H52" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="I52" s="37"/>
-      <c r="J52" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="K52" s="38" t="s">
-        <v>217</v>
-      </c>
+      <c r="I52" s="43"/>
+      <c r="J52" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="K52" s="22"/>
     </row>
     <row r="53" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C53" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="34"/>
+      <c r="E53" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="I53" s="43"/>
+      <c r="J53" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="K53" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="25"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I54" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="J54" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K54" s="22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="25"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="H55" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="I55" s="43"/>
+      <c r="J55" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K55" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="25"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="I56" s="43"/>
+      <c r="J56" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="K56" s="22"/>
+    </row>
+    <row r="57" spans="3:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="35"/>
+      <c r="E57" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H57" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H53" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="I53" s="37"/>
-      <c r="J53" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="K53" s="38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H54" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="I54" s="37" t="s">
+      <c r="I57" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="J54" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="K54" s="38" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H55" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="I55" s="37"/>
-      <c r="J55" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="K55" s="38" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C56" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D56" s="23"/>
-      <c r="E56" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H56" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="K56" s="38" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D57" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H57" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="K57" s="38" t="s">
-        <v>225</v>
+      <c r="J57" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="K57" s="19" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C58" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="I58" s="43"/>
+      <c r="J58" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="K58" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" s="34"/>
+      <c r="E59" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I59" s="43"/>
+      <c r="J59" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="K59" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C60" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" s="34"/>
+      <c r="E60" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I60" s="43"/>
+      <c r="J60" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="K60" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C61" s="25"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="H61" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="I61" s="43"/>
+      <c r="J61" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="K61" s="22"/>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C62" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" s="34"/>
+      <c r="E62" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H62" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="7" t="s">
+      <c r="I62" s="43"/>
+      <c r="J62" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="K62" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C63" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="I63" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="J63" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="K63" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C64" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" s="31"/>
+      <c r="E64" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="I64" s="43"/>
+      <c r="J64" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="K64" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C65" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="32"/>
+      <c r="E65" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="I65" s="43"/>
+      <c r="J65" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="K65" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C66" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D66" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H66" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="I66" s="43"/>
+      <c r="J66" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="K66" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C67" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" s="41"/>
+      <c r="E67" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F67" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H58" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="I58" s="37" t="s">
+      <c r="H67" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="I67" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="J67" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="K67" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="J58" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="K58" s="38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="E59" s="7" t="s">
+      <c r="E68" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F68" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I68" s="43"/>
+      <c r="J68" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="K68" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F69" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H59" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="I59" s="37"/>
-      <c r="J59" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="K59" s="38" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H60" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="I60" s="37"/>
-      <c r="J60" s="38" t="s">
+      <c r="H69" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="I69" s="43"/>
+      <c r="J69" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K69" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="K60" s="38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H61" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="I61" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="J61" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="K61" s="38" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="62" spans="3:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H62" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="I62" s="37"/>
-      <c r="J62" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="K62" s="38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="H63" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="I63" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="J63" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="K63" s="38" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="38"/>
-    </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="38"/>
-    </row>
-    <row r="66" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="K66" s="38" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="67" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="K67" s="38" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="68" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="K68" s="38" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-    </row>
-    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70"/>
-    </row>
-    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H70" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="I70" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="J70" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="K70" s="19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" ht="60" x14ac:dyDescent="0.25">
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71"/>
-    </row>
-    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H71" s="44"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="K71" s="19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72"/>
-    </row>
-    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H72" s="44"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="K72" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" ht="60" x14ac:dyDescent="0.25">
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="K73" s="19" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="74" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C74"/>
@@ -2794,47 +3021,72 @@
       <c r="E81"/>
       <c r="F81"/>
     </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+    </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="H63:H68"/>
-    <mergeCell ref="I63:I68"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="I44:I48"/>
-    <mergeCell ref="I49:I53"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="I23:I29"/>
-    <mergeCell ref="I30:I38"/>
-    <mergeCell ref="I39:I42"/>
+  <mergeCells count="34">
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="I70:I73"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="I48:I53"/>
+    <mergeCell ref="I57:I62"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="I22:I28"/>
+    <mergeCell ref="I42:I46"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="I10:I14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="I15:I21"/>
+    <mergeCell ref="I29:I41"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="D63:D65"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="D30:D36"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="D29:D36"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="D49:D57"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="E15:E16"/>
     <mergeCell ref="D10:D14"/>
-    <mergeCell ref="D15:D23"/>
+    <mergeCell ref="D15:D22"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WIP/Users/HuyenPT/UC/List of UseCase.xlsx
+++ b/WIP/Users/HuyenPT/UC/List of UseCase.xlsx
@@ -1145,6 +1145,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1155,61 +1206,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1514,9 +1514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" activeCellId="2" sqref="A1 A2 A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1526,9 +1524,9 @@
     <col min="5" max="5" width="28.5703125" style="3" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="54.5703125" style="3" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="32" customWidth="1"/>
-    <col min="10" max="10" width="35.42578125" customWidth="1"/>
-    <col min="11" max="11" width="50.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:11" ht="30" x14ac:dyDescent="0.25">
@@ -1558,18 +1556,18 @@
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="H6" s="44" t="s">
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="H6" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C7" s="13" t="s">
@@ -1587,7 +1585,7 @@
       <c r="H7" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="29" t="s">
         <v>177</v>
       </c>
       <c r="J7" s="19" t="s">
@@ -1611,7 +1609,7 @@
       <c r="H8" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="I8" s="43"/>
+      <c r="I8" s="29"/>
       <c r="J8" s="19" t="s">
         <v>55</v>
       </c>
@@ -1620,24 +1618,24 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="H9" s="44" t="s">
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
+      <c r="H9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="35" t="s">
         <v>108</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -1649,7 +1647,7 @@
       <c r="H10" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="29" t="s">
         <v>257</v>
       </c>
       <c r="J10" s="19" t="s">
@@ -1663,7 +1661,7 @@
       <c r="C11" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1673,7 +1671,7 @@
       <c r="H11" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="43"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="19" t="s">
         <v>7</v>
       </c>
@@ -1685,7 +1683,7 @@
       <c r="C12" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="31"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="5" t="s">
         <v>179</v>
       </c>
@@ -1695,7 +1693,7 @@
       <c r="H12" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="I12" s="43"/>
+      <c r="I12" s="29"/>
       <c r="J12" s="19" t="s">
         <v>179</v>
       </c>
@@ -1707,7 +1705,7 @@
       <c r="C13" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="5" t="s">
         <v>180</v>
       </c>
@@ -1717,7 +1715,7 @@
       <c r="H13" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="I13" s="43"/>
+      <c r="I13" s="29"/>
       <c r="J13" s="19" t="s">
         <v>180</v>
       </c>
@@ -1729,7 +1727,7 @@
       <c r="C14" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="32"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="5" t="s">
         <v>81</v>
       </c>
@@ -1739,7 +1737,7 @@
       <c r="H14" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="I14" s="43"/>
+      <c r="I14" s="29"/>
       <c r="J14" s="19" t="s">
         <v>184</v>
       </c>
@@ -1763,7 +1761,7 @@
       <c r="H15" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="29" t="s">
         <v>253</v>
       </c>
       <c r="J15" s="22" t="s">
@@ -1778,7 +1776,7 @@
         <v>125</v>
       </c>
       <c r="D16" s="34"/>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="47" t="s">
         <v>178</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -1787,7 +1785,7 @@
       <c r="H16" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="I16" s="43"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="19" t="s">
         <v>234</v>
       </c>
@@ -1796,16 +1794,16 @@
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="35"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="37"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="I17" s="43"/>
+      <c r="I17" s="29"/>
       <c r="J17" s="19" t="s">
         <v>235</v>
       </c>
@@ -1827,7 +1825,7 @@
       <c r="H18" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="43"/>
+      <c r="I18" s="29"/>
       <c r="J18" s="19" t="s">
         <v>236</v>
       </c>
@@ -1849,7 +1847,7 @@
       <c r="H19" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="I19" s="43"/>
+      <c r="I19" s="29"/>
       <c r="J19" s="19" t="s">
         <v>96</v>
       </c>
@@ -1871,7 +1869,7 @@
       <c r="H20" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="43"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="19" t="s">
         <v>13</v>
       </c>
@@ -1893,7 +1891,7 @@
       <c r="H21" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="I21" s="43"/>
+      <c r="I21" s="29"/>
       <c r="J21" s="19" t="s">
         <v>237</v>
       </c>
@@ -1915,7 +1913,7 @@
       <c r="H22" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="29" t="s">
         <v>254</v>
       </c>
       <c r="J22" s="19" t="s">
@@ -1929,7 +1927,7 @@
       <c r="C23" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="35" t="s">
         <v>116</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -1941,7 +1939,7 @@
       <c r="H23" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="I23" s="43"/>
+      <c r="I23" s="29"/>
       <c r="J23" s="19" t="s">
         <v>238</v>
       </c>
@@ -1953,7 +1951,7 @@
       <c r="C24" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="31"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="7" t="s">
         <v>23</v>
       </c>
@@ -1963,7 +1961,7 @@
       <c r="H24" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="I24" s="43"/>
+      <c r="I24" s="29"/>
       <c r="J24" s="19" t="s">
         <v>240</v>
       </c>
@@ -1975,7 +1973,7 @@
       <c r="C25" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D25" s="31"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="7" t="s">
         <v>47</v>
       </c>
@@ -1985,7 +1983,7 @@
       <c r="H25" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="I25" s="43"/>
+      <c r="I25" s="29"/>
       <c r="J25" s="19" t="s">
         <v>40</v>
       </c>
@@ -1997,7 +1995,7 @@
       <c r="C26" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="31"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="5" t="s">
         <v>40</v>
       </c>
@@ -2007,7 +2005,7 @@
       <c r="H26" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="I26" s="43"/>
+      <c r="I26" s="29"/>
       <c r="J26" s="19" t="s">
         <v>195</v>
       </c>
@@ -2019,7 +2017,7 @@
       <c r="C27" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D27" s="31"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="5" t="s">
         <v>41</v>
       </c>
@@ -2029,7 +2027,7 @@
       <c r="H27" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="I27" s="43"/>
+      <c r="I27" s="29"/>
       <c r="J27" s="19" t="s">
         <v>48</v>
       </c>
@@ -2041,7 +2039,7 @@
       <c r="C28" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D28" s="31"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="5" t="s">
         <v>48</v>
       </c>
@@ -2051,7 +2049,7 @@
       <c r="H28" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="I28" s="43"/>
+      <c r="I28" s="29"/>
       <c r="J28" s="19" t="s">
         <v>115</v>
       </c>
@@ -2073,7 +2071,7 @@
       <c r="H29" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I29" s="46" t="s">
+      <c r="I29" s="30" t="s">
         <v>255</v>
       </c>
       <c r="J29" s="19" t="s">
@@ -2097,7 +2095,7 @@
       <c r="H30" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="I30" s="47"/>
+      <c r="I30" s="31"/>
       <c r="J30" s="19" t="s">
         <v>279</v>
       </c>
@@ -2113,7 +2111,7 @@
       <c r="H31" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="I31" s="47"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="22" t="s">
         <v>280</v>
       </c>
@@ -2133,7 +2131,7 @@
       <c r="H32" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="I32" s="47"/>
+      <c r="I32" s="31"/>
       <c r="J32" s="19" t="s">
         <v>241</v>
       </c>
@@ -2155,7 +2153,7 @@
       <c r="H33" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="I33" s="47"/>
+      <c r="I33" s="31"/>
       <c r="J33" s="19" t="s">
         <v>232</v>
       </c>
@@ -2177,7 +2175,7 @@
       <c r="H34" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="I34" s="47"/>
+      <c r="I34" s="31"/>
       <c r="J34" s="19" t="s">
         <v>281</v>
       </c>
@@ -2199,7 +2197,7 @@
       <c r="H35" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I35" s="47"/>
+      <c r="I35" s="31"/>
       <c r="J35" s="19" t="s">
         <v>242</v>
       </c>
@@ -2211,7 +2209,7 @@
       <c r="C36" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="35"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="5" t="s">
         <v>36</v>
       </c>
@@ -2221,7 +2219,7 @@
       <c r="H36" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="I36" s="47"/>
+      <c r="I36" s="31"/>
       <c r="J36" s="19" t="s">
         <v>243</v>
       </c>
@@ -2237,7 +2235,7 @@
       <c r="H37" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="I37" s="47"/>
+      <c r="I37" s="31"/>
       <c r="J37" s="22" t="s">
         <v>245</v>
       </c>
@@ -2259,7 +2257,7 @@
       <c r="H38" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="I38" s="47"/>
+      <c r="I38" s="31"/>
       <c r="J38" s="19" t="s">
         <v>244</v>
       </c>
@@ -2281,7 +2279,7 @@
       <c r="H39" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="I39" s="47"/>
+      <c r="I39" s="31"/>
       <c r="J39" s="19" t="s">
         <v>282</v>
       </c>
@@ -2292,12 +2290,12 @@
     <row r="40" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="25"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="45"/>
+      <c r="E40" s="27"/>
       <c r="F40" s="7"/>
       <c r="H40" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="I40" s="47"/>
+      <c r="I40" s="31"/>
       <c r="J40" s="22" t="s">
         <v>246</v>
       </c>
@@ -2306,12 +2304,12 @@
     <row r="41" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="25"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="45"/>
+      <c r="E41" s="27"/>
       <c r="F41" s="7"/>
       <c r="H41" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="I41" s="48"/>
+      <c r="I41" s="32"/>
       <c r="J41" s="22" t="s">
         <v>247</v>
       </c>
@@ -2331,7 +2329,7 @@
       <c r="H42" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I42" s="43" t="s">
+      <c r="I42" s="29" t="s">
         <v>256</v>
       </c>
       <c r="J42" s="19" t="s">
@@ -2349,7 +2347,7 @@
       <c r="H43" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="I43" s="43"/>
+      <c r="I43" s="29"/>
       <c r="J43" s="20" t="s">
         <v>227</v>
       </c>
@@ -2361,7 +2359,7 @@
       <c r="C44" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D44" s="35"/>
+      <c r="D44" s="41"/>
       <c r="E44" s="5" t="s">
         <v>174</v>
       </c>
@@ -2371,7 +2369,7 @@
       <c r="H44" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="I44" s="43"/>
+      <c r="I44" s="29"/>
       <c r="J44" s="19" t="s">
         <v>248</v>
       </c>
@@ -2380,16 +2378,16 @@
       </c>
     </row>
     <row r="45" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
       <c r="H45" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="I45" s="43"/>
+      <c r="I45" s="29"/>
       <c r="J45" s="19" t="s">
         <v>175</v>
       </c>
@@ -2401,7 +2399,7 @@
       <c r="C46" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="35" t="s">
         <v>122</v>
       </c>
       <c r="E46" s="5" t="s">
@@ -2413,7 +2411,7 @@
       <c r="H46" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="I46" s="43"/>
+      <c r="I46" s="29"/>
       <c r="J46" s="19" t="s">
         <v>174</v>
       </c>
@@ -2425,25 +2423,25 @@
       <c r="C47" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="31"/>
+      <c r="D47" s="36"/>
       <c r="E47" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H47" s="44" t="s">
+      <c r="H47" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
     </row>
     <row r="48" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C48" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D48" s="32"/>
+      <c r="D48" s="37"/>
       <c r="E48" s="7" t="s">
         <v>77</v>
       </c>
@@ -2453,7 +2451,7 @@
       <c r="H48" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="I48" s="43" t="s">
+      <c r="I48" s="29" t="s">
         <v>122</v>
       </c>
       <c r="J48" s="19" t="s">
@@ -2479,7 +2477,7 @@
       <c r="H49" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="I49" s="43"/>
+      <c r="I49" s="29"/>
       <c r="J49" s="19" t="s">
         <v>53</v>
       </c>
@@ -2501,7 +2499,7 @@
       <c r="H50" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="I50" s="43"/>
+      <c r="I50" s="29"/>
       <c r="J50" s="19" t="s">
         <v>54</v>
       </c>
@@ -2523,7 +2521,7 @@
       <c r="H51" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="I51" s="43"/>
+      <c r="I51" s="29"/>
       <c r="J51" s="19" t="s">
         <v>250</v>
       </c>
@@ -2539,7 +2537,7 @@
       <c r="H52" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="I52" s="43"/>
+      <c r="I52" s="29"/>
       <c r="J52" s="22" t="s">
         <v>230</v>
       </c>
@@ -2559,7 +2557,7 @@
       <c r="H53" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I53" s="43"/>
+      <c r="I53" s="29"/>
       <c r="J53" s="19" t="s">
         <v>231</v>
       </c>
@@ -2579,7 +2577,7 @@
       <c r="H54" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="I54" s="43" t="s">
+      <c r="I54" s="29" t="s">
         <v>119</v>
       </c>
       <c r="J54" s="22" t="s">
@@ -2597,7 +2595,7 @@
       <c r="H55" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="I55" s="43"/>
+      <c r="I55" s="29"/>
       <c r="J55" s="22" t="s">
         <v>91</v>
       </c>
@@ -2617,7 +2615,7 @@
       <c r="H56" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="I56" s="43"/>
+      <c r="I56" s="29"/>
       <c r="J56" s="22" t="s">
         <v>249</v>
       </c>
@@ -2627,7 +2625,7 @@
       <c r="C57" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D57" s="35"/>
+      <c r="D57" s="41"/>
       <c r="E57" s="7" t="s">
         <v>63</v>
       </c>
@@ -2637,7 +2635,7 @@
       <c r="H57" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="I57" s="43" t="s">
+      <c r="I57" s="29" t="s">
         <v>121</v>
       </c>
       <c r="J57" s="19" t="s">
@@ -2663,7 +2661,7 @@
       <c r="H58" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="I58" s="43"/>
+      <c r="I58" s="29"/>
       <c r="J58" s="19" t="s">
         <v>252</v>
       </c>
@@ -2685,7 +2683,7 @@
       <c r="H59" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="I59" s="43"/>
+      <c r="I59" s="29"/>
       <c r="J59" s="19" t="s">
         <v>258</v>
       </c>
@@ -2707,7 +2705,7 @@
       <c r="H60" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="I60" s="43"/>
+      <c r="I60" s="29"/>
       <c r="J60" s="19" t="s">
         <v>62</v>
       </c>
@@ -2723,7 +2721,7 @@
       <c r="H61" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="I61" s="43"/>
+      <c r="I61" s="29"/>
       <c r="J61" s="22" t="s">
         <v>261</v>
       </c>
@@ -2743,7 +2741,7 @@
       <c r="H62" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="I62" s="43"/>
+      <c r="I62" s="29"/>
       <c r="J62" s="19" t="s">
         <v>262</v>
       </c>
@@ -2755,7 +2753,7 @@
       <c r="C63" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="D63" s="35" t="s">
         <v>117</v>
       </c>
       <c r="E63" s="5" t="s">
@@ -2767,7 +2765,7 @@
       <c r="H63" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="I63" s="43" t="s">
+      <c r="I63" s="29" t="s">
         <v>120</v>
       </c>
       <c r="J63" s="19" t="s">
@@ -2781,7 +2779,7 @@
       <c r="C64" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D64" s="31"/>
+      <c r="D64" s="36"/>
       <c r="E64" s="5" t="s">
         <v>79</v>
       </c>
@@ -2791,7 +2789,7 @@
       <c r="H64" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="I64" s="43"/>
+      <c r="I64" s="29"/>
       <c r="J64" s="19" t="s">
         <v>260</v>
       </c>
@@ -2803,7 +2801,7 @@
       <c r="C65" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="D65" s="32"/>
+      <c r="D65" s="37"/>
       <c r="E65" s="5" t="s">
         <v>80</v>
       </c>
@@ -2813,7 +2811,7 @@
       <c r="H65" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="I65" s="43"/>
+      <c r="I65" s="29"/>
       <c r="J65" s="19" t="s">
         <v>216</v>
       </c>
@@ -2825,7 +2823,7 @@
       <c r="C66" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D66" s="41" t="s">
+      <c r="D66" s="42" t="s">
         <v>119</v>
       </c>
       <c r="E66" s="7" t="s">
@@ -2837,7 +2835,7 @@
       <c r="H66" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="I66" s="43"/>
+      <c r="I66" s="29"/>
       <c r="J66" s="19" t="s">
         <v>263</v>
       </c>
@@ -2849,7 +2847,7 @@
       <c r="C67" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D67" s="41"/>
+      <c r="D67" s="42"/>
       <c r="E67" s="7" t="s">
         <v>91</v>
       </c>
@@ -2859,7 +2857,7 @@
       <c r="H67" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="I67" s="43" t="s">
+      <c r="I67" s="29" t="s">
         <v>117</v>
       </c>
       <c r="J67" s="19" t="s">
@@ -2885,7 +2883,7 @@
       <c r="H68" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="I68" s="43"/>
+      <c r="I68" s="29"/>
       <c r="J68" s="19" t="s">
         <v>265</v>
       </c>
@@ -2905,7 +2903,7 @@
       <c r="H69" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="I69" s="43"/>
+      <c r="I69" s="29"/>
       <c r="J69" s="19" t="s">
         <v>266</v>
       </c>
@@ -2918,10 +2916,10 @@
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70"/>
-      <c r="H70" s="44" t="s">
+      <c r="H70" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="I70" s="43" t="s">
+      <c r="I70" s="29" t="s">
         <v>118</v>
       </c>
       <c r="J70" s="22" t="s">
@@ -2936,8 +2934,8 @@
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="43"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="29"/>
       <c r="J71" s="19" t="s">
         <v>268</v>
       </c>
@@ -2950,8 +2948,8 @@
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="43"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="29"/>
       <c r="J72" s="19" t="s">
         <v>269</v>
       </c>
@@ -2964,8 +2962,8 @@
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="43"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="29"/>
       <c r="J73" s="19" t="s">
         <v>270</v>
       </c>
@@ -3053,22 +3051,12 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="I70:I73"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="I48:I53"/>
-    <mergeCell ref="I57:I62"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="I22:I28"/>
-    <mergeCell ref="I42:I46"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="I15:I21"/>
-    <mergeCell ref="I29:I41"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="D15:D22"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="D58:D62"/>
     <mergeCell ref="D63:D65"/>
     <mergeCell ref="D7:D8"/>
@@ -3081,12 +3069,22 @@
     <mergeCell ref="C45:F45"/>
     <mergeCell ref="D46:D48"/>
     <mergeCell ref="D49:D57"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="D15:D22"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="I22:I28"/>
+    <mergeCell ref="I42:I46"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="I15:I21"/>
+    <mergeCell ref="I29:I41"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="I70:I73"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="I48:I53"/>
+    <mergeCell ref="I57:I62"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="I54:I56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WIP/Users/HuyenPT/UC/List of UseCase.xlsx
+++ b/WIP/Users/HuyenPT/UC/List of UseCase.xlsx
@@ -939,7 +939,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -949,6 +949,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,9 +1121,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1148,12 +1151,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1163,53 +1214,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1525,8 +1531,8 @@
     <col min="6" max="6" width="54.5703125" style="3" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="10" max="10" width="36.5703125" customWidth="1"/>
+    <col min="11" max="11" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:11" ht="30" x14ac:dyDescent="0.25">
@@ -1542,34 +1548,34 @@
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="48" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
-      <c r="H6" s="28" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="H6" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+    </row>
+    <row r="7" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C7" s="13" t="s">
         <v>107</v>
       </c>
@@ -1582,16 +1588,16 @@
       <c r="F7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1606,36 +1612,36 @@
       <c r="F8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="19" t="s">
+      <c r="I8" s="43"/>
+      <c r="J8" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="18" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
-      <c r="H9" s="28" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="H9" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="30" t="s">
         <v>108</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -1644,16 +1650,16 @@
       <c r="F10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1661,21 +1667,21 @@
       <c r="C11" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="19" t="s">
+      <c r="I11" s="43"/>
+      <c r="J11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1683,21 +1689,21 @@
       <c r="C12" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="36"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="5" t="s">
         <v>179</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="19" t="s">
+      <c r="I12" s="43"/>
+      <c r="J12" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="18" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1705,21 +1711,21 @@
       <c r="C13" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="5" t="s">
         <v>180</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="19" t="s">
+      <c r="I13" s="43"/>
+      <c r="J13" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="18" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1727,47 +1733,47 @@
       <c r="C14" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="5" t="s">
         <v>81</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="19" t="s">
+      <c r="I14" s="43"/>
+      <c r="J14" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="18" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="23" t="s">
+    <row r="15" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C15" s="22" t="s">
         <v>124</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="18" t="s">
         <v>271</v>
       </c>
     </row>
@@ -1776,38 +1782,38 @@
         <v>125</v>
       </c>
       <c r="D16" s="34"/>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="36" t="s">
         <v>178</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="19" t="s">
+      <c r="I16" s="43"/>
+      <c r="J16" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="18" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="41"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="48"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="19" t="s">
+      <c r="I17" s="43"/>
+      <c r="J17" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="18" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1822,14 +1828,14 @@
       <c r="F18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="19" t="s">
+      <c r="I18" s="43"/>
+      <c r="J18" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="18" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1844,14 +1850,14 @@
       <c r="F19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="19" t="s">
+      <c r="I19" s="43"/>
+      <c r="J19" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="18" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1866,14 +1872,14 @@
       <c r="F20" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="19" t="s">
+      <c r="I20" s="43"/>
+      <c r="J20" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1888,14 +1894,14 @@
       <c r="F21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="19" t="s">
+      <c r="I21" s="43"/>
+      <c r="J21" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="18" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1910,24 +1916,24 @@
       <c r="F22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="18" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C23" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="30" t="s">
         <v>116</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -1936,14 +1942,14 @@
       <c r="F23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="19" t="s">
+      <c r="I23" s="43"/>
+      <c r="J23" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="18" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1951,43 +1957,43 @@
       <c r="C24" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="36"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="19" t="s">
+      <c r="I24" s="43"/>
+      <c r="J24" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="K24" s="19" t="s">
+      <c r="K24" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11" ht="90" x14ac:dyDescent="0.25">
       <c r="C25" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D25" s="36"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="19" t="s">
+      <c r="I25" s="43"/>
+      <c r="J25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="K25" s="18" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1995,21 +2001,21 @@
       <c r="C26" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="36"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="19" t="s">
+      <c r="I26" s="43"/>
+      <c r="J26" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="19" t="s">
+      <c r="K26" s="18" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2017,43 +2023,43 @@
       <c r="C27" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D27" s="36"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="19" t="s">
+      <c r="I27" s="43"/>
+      <c r="J27" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="K27" s="19" t="s">
+      <c r="K27" s="18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:11" ht="135" x14ac:dyDescent="0.25">
       <c r="C28" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D28" s="36"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="5" t="s">
         <v>48</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="19" t="s">
+      <c r="I28" s="43"/>
+      <c r="J28" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="K28" s="19" t="s">
+      <c r="K28" s="18" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2068,16 +2074,16 @@
       <c r="F29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="J29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="18" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2092,30 +2098,30 @@
       <c r="F30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="19" t="s">
+      <c r="I30" s="46"/>
+      <c r="J30" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="K30" s="19" t="s">
+      <c r="K30" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="25"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="34"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="22" t="s">
+      <c r="I31" s="46"/>
+      <c r="J31" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="K31" s="22"/>
+      <c r="K31" s="21"/>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32" s="15" t="s">
@@ -2128,18 +2134,18 @@
       <c r="F32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="21" t="s">
+      <c r="H32" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="I32" s="31"/>
-      <c r="J32" s="19" t="s">
+      <c r="I32" s="46"/>
+      <c r="J32" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="K32" s="19" t="s">
+      <c r="K32" s="18" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C33" s="15" t="s">
         <v>143</v>
       </c>
@@ -2150,14 +2156,14 @@
       <c r="F33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="21" t="s">
+      <c r="H33" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="19" t="s">
+      <c r="I33" s="46"/>
+      <c r="J33" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="K33" s="19" t="s">
+      <c r="K33" s="18" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2172,14 +2178,14 @@
       <c r="F34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="21" t="s">
+      <c r="H34" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="19" t="s">
+      <c r="I34" s="46"/>
+      <c r="J34" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="K34" s="18" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2194,14 +2200,14 @@
       <c r="F35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="H35" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="I35" s="31"/>
-      <c r="J35" s="19" t="s">
+      <c r="I35" s="46"/>
+      <c r="J35" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="K35" s="19" t="s">
+      <c r="K35" s="18" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2209,37 +2215,37 @@
       <c r="C36" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="41"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H36" s="21" t="s">
+      <c r="H36" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="I36" s="31"/>
-      <c r="J36" s="19" t="s">
+      <c r="I36" s="46"/>
+      <c r="J36" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="K36" s="19" t="s">
+      <c r="K36" s="18" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="25"/>
-      <c r="D37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="H37" s="21" t="s">
+      <c r="H37" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="I37" s="31"/>
-      <c r="J37" s="22" t="s">
+      <c r="I37" s="46"/>
+      <c r="J37" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="K37" s="22"/>
+      <c r="K37" s="21"/>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" s="15" t="s">
@@ -2254,14 +2260,14 @@
       <c r="F38" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H38" s="21" t="s">
+      <c r="H38" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="I38" s="31"/>
-      <c r="J38" s="19" t="s">
+      <c r="I38" s="46"/>
+      <c r="J38" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="K38" s="19" t="s">
+      <c r="K38" s="18" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2276,44 +2282,44 @@
       <c r="F39" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H39" s="21" t="s">
+      <c r="H39" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="I39" s="31"/>
-      <c r="J39" s="19" t="s">
+      <c r="I39" s="46"/>
+      <c r="J39" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="K39" s="19" t="s">
+      <c r="K39" s="18" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="40" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="25"/>
+      <c r="C40" s="24"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="27"/>
+      <c r="E40" s="26"/>
       <c r="F40" s="7"/>
-      <c r="H40" s="21" t="s">
+      <c r="H40" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="I40" s="31"/>
-      <c r="J40" s="22" t="s">
+      <c r="I40" s="46"/>
+      <c r="J40" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="K40" s="22"/>
+      <c r="K40" s="21"/>
     </row>
     <row r="41" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="25"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="27"/>
+      <c r="E41" s="26"/>
       <c r="F41" s="7"/>
-      <c r="H41" s="21" t="s">
+      <c r="H41" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="I41" s="32"/>
-      <c r="J41" s="22" t="s">
+      <c r="I41" s="47"/>
+      <c r="J41" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="K41" s="22"/>
+      <c r="K41" s="21"/>
     </row>
     <row r="42" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C42" s="15" t="s">
@@ -2326,16 +2332,16 @@
       <c r="F42" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H42" s="21" t="s">
+      <c r="H42" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="I42" s="29" t="s">
+      <c r="I42" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="J42" s="19" t="s">
+      <c r="J42" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="K42" s="19" t="s">
+      <c r="K42" s="18" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2344,14 +2350,14 @@
       <c r="D43" s="34"/>
       <c r="E43" s="10"/>
       <c r="F43" s="5"/>
-      <c r="H43" s="21" t="s">
+      <c r="H43" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="I43" s="29"/>
-      <c r="J43" s="20" t="s">
+      <c r="I43" s="43"/>
+      <c r="J43" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="K43" s="20" t="s">
+      <c r="K43" s="19" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2359,39 +2365,39 @@
       <c r="C44" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D44" s="41"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="5" t="s">
         <v>174</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H44" s="21" t="s">
+      <c r="H44" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="I44" s="29"/>
-      <c r="J44" s="19" t="s">
+      <c r="I44" s="43"/>
+      <c r="J44" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="K44" s="19" t="s">
+      <c r="K44" s="18" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="45" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="H45" s="21" t="s">
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="H45" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="I45" s="29"/>
-      <c r="J45" s="19" t="s">
+      <c r="I45" s="43"/>
+      <c r="J45" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="K45" s="19" t="s">
+      <c r="K45" s="18" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2399,7 +2405,7 @@
       <c r="C46" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="30" t="s">
         <v>122</v>
       </c>
       <c r="E46" s="5" t="s">
@@ -2408,14 +2414,14 @@
       <c r="F46" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H46" s="21" t="s">
+      <c r="H46" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="I46" s="29"/>
-      <c r="J46" s="19" t="s">
+      <c r="I46" s="43"/>
+      <c r="J46" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="K46" s="19" t="s">
+      <c r="K46" s="18" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2423,41 +2429,41 @@
       <c r="C47" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="36"/>
+      <c r="D47" s="31"/>
       <c r="E47" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H47" s="28" t="s">
+      <c r="H47" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
     </row>
     <row r="48" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C48" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D48" s="37"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="H48" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="I48" s="29" t="s">
+      <c r="I48" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="J48" s="19" t="s">
+      <c r="J48" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="K48" s="19" t="s">
+      <c r="K48" s="18" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2474,14 +2480,14 @@
       <c r="F49" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H49" s="21" t="s">
+      <c r="H49" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="I49" s="29"/>
-      <c r="J49" s="19" t="s">
+      <c r="I49" s="43"/>
+      <c r="J49" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="K49" s="19" t="s">
+      <c r="K49" s="18" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2496,18 +2502,18 @@
       <c r="F50" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H50" s="21" t="s">
+      <c r="H50" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="I50" s="29"/>
-      <c r="J50" s="19" t="s">
+      <c r="I50" s="43"/>
+      <c r="J50" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="K50" s="19" t="s">
+      <c r="K50" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C51" s="15" t="s">
         <v>158</v>
       </c>
@@ -2518,30 +2524,30 @@
       <c r="F51" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H51" s="21" t="s">
+      <c r="H51" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="I51" s="29"/>
-      <c r="J51" s="19" t="s">
+      <c r="I51" s="43"/>
+      <c r="J51" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="K51" s="19" t="s">
+      <c r="K51" s="18" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="52" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C52" s="25"/>
+      <c r="C52" s="24"/>
       <c r="D52" s="34"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="H52" s="21" t="s">
+      <c r="H52" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="I52" s="29"/>
-      <c r="J52" s="22" t="s">
+      <c r="I52" s="43"/>
+      <c r="J52" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="K52" s="22"/>
+      <c r="K52" s="21"/>
     </row>
     <row r="53" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C53" s="15" t="s">
@@ -2554,19 +2560,19 @@
       <c r="F53" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H53" s="21" t="s">
+      <c r="H53" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="I53" s="29"/>
-      <c r="J53" s="19" t="s">
+      <c r="I53" s="43"/>
+      <c r="J53" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="K53" s="19" t="s">
+      <c r="K53" s="18" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="54" spans="3:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="25"/>
+      <c r="C54" s="24"/>
       <c r="D54" s="34"/>
       <c r="E54" s="7" t="s">
         <v>85</v>
@@ -2574,37 +2580,37 @@
       <c r="F54" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H54" s="21" t="s">
+      <c r="H54" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="I54" s="29" t="s">
+      <c r="I54" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="J54" s="22" t="s">
+      <c r="J54" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="K54" s="22" t="s">
+      <c r="K54" s="21" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="55" spans="3:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="25"/>
+      <c r="C55" s="24"/>
       <c r="D55" s="34"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="H55" s="21" t="s">
+      <c r="H55" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="I55" s="29"/>
-      <c r="J55" s="22" t="s">
+      <c r="I55" s="43"/>
+      <c r="J55" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="K55" s="22" t="s">
+      <c r="K55" s="21" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="56" spans="3:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="25"/>
+      <c r="C56" s="24"/>
       <c r="D56" s="34"/>
       <c r="E56" s="7" t="s">
         <v>86</v>
@@ -2612,36 +2618,36 @@
       <c r="F56" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H56" s="21" t="s">
+      <c r="H56" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="I56" s="29"/>
-      <c r="J56" s="22" t="s">
+      <c r="I56" s="43"/>
+      <c r="J56" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="K56" s="22"/>
+      <c r="K56" s="21"/>
     </row>
     <row r="57" spans="3:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D57" s="41"/>
+      <c r="D57" s="35"/>
       <c r="E57" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H57" s="21" t="s">
+      <c r="H57" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="I57" s="29" t="s">
+      <c r="I57" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="J57" s="19" t="s">
+      <c r="J57" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="K57" s="19" t="s">
+      <c r="K57" s="18" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2658,14 +2664,14 @@
       <c r="F58" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H58" s="21" t="s">
+      <c r="H58" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="I58" s="29"/>
-      <c r="J58" s="19" t="s">
+      <c r="I58" s="43"/>
+      <c r="J58" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="K58" s="19" t="s">
+      <c r="K58" s="18" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2680,14 +2686,14 @@
       <c r="F59" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H59" s="21" t="s">
+      <c r="H59" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="I59" s="29"/>
-      <c r="J59" s="19" t="s">
+      <c r="I59" s="43"/>
+      <c r="J59" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="K59" s="19" t="s">
+      <c r="K59" s="18" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2702,32 +2708,32 @@
       <c r="F60" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H60" s="21" t="s">
+      <c r="H60" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="I60" s="29"/>
-      <c r="J60" s="19" t="s">
+      <c r="I60" s="43"/>
+      <c r="J60" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="K60" s="19" t="s">
+      <c r="K60" s="18" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C61" s="25"/>
+      <c r="C61" s="24"/>
       <c r="D61" s="34"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
-      <c r="H61" s="21" t="s">
+      <c r="H61" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="I61" s="29"/>
-      <c r="J61" s="22" t="s">
+      <c r="I61" s="43"/>
+      <c r="J61" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="K61" s="22"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K61" s="21"/>
+    </row>
+    <row r="62" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C62" s="15" t="s">
         <v>164</v>
       </c>
@@ -2738,14 +2744,14 @@
       <c r="F62" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H62" s="21" t="s">
+      <c r="H62" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="I62" s="29"/>
-      <c r="J62" s="19" t="s">
+      <c r="I62" s="43"/>
+      <c r="J62" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="K62" s="19" t="s">
+      <c r="K62" s="18" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2753,7 +2759,7 @@
       <c r="C63" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="30" t="s">
         <v>117</v>
       </c>
       <c r="E63" s="5" t="s">
@@ -2762,16 +2768,16 @@
       <c r="F63" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H63" s="21" t="s">
+      <c r="H63" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="I63" s="29" t="s">
+      <c r="I63" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="J63" s="19" t="s">
+      <c r="J63" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="K63" s="19" t="s">
+      <c r="K63" s="18" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2779,21 +2785,21 @@
       <c r="C64" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D64" s="36"/>
+      <c r="D64" s="31"/>
       <c r="E64" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H64" s="21" t="s">
+      <c r="H64" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="I64" s="29"/>
-      <c r="J64" s="19" t="s">
+      <c r="I64" s="43"/>
+      <c r="J64" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="K64" s="19" t="s">
+      <c r="K64" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2801,21 +2807,21 @@
       <c r="C65" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="D65" s="37"/>
+      <c r="D65" s="32"/>
       <c r="E65" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H65" s="21" t="s">
+      <c r="H65" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="I65" s="29"/>
-      <c r="J65" s="19" t="s">
+      <c r="I65" s="43"/>
+      <c r="J65" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="K65" s="19" t="s">
+      <c r="K65" s="18" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2823,7 +2829,7 @@
       <c r="C66" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D66" s="42" t="s">
+      <c r="D66" s="41" t="s">
         <v>119</v>
       </c>
       <c r="E66" s="7" t="s">
@@ -2832,14 +2838,14 @@
       <c r="F66" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H66" s="21" t="s">
+      <c r="H66" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="I66" s="29"/>
-      <c r="J66" s="19" t="s">
+      <c r="I66" s="43"/>
+      <c r="J66" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="K66" s="19" t="s">
+      <c r="K66" s="18" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2847,23 +2853,23 @@
       <c r="C67" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D67" s="42"/>
+      <c r="D67" s="41"/>
       <c r="E67" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H67" s="21" t="s">
+      <c r="H67" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="I67" s="29" t="s">
+      <c r="I67" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="J67" s="19" t="s">
+      <c r="J67" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="K67" s="19" t="s">
+      <c r="K67" s="18" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2880,14 +2886,14 @@
       <c r="F68" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H68" s="21" t="s">
+      <c r="H68" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="I68" s="29"/>
-      <c r="J68" s="19" t="s">
+      <c r="I68" s="43"/>
+      <c r="J68" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="K68" s="19" t="s">
+      <c r="K68" s="18" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2900,14 +2906,14 @@
       <c r="F69" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H69" s="21" t="s">
+      <c r="H69" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="I69" s="29"/>
-      <c r="J69" s="19" t="s">
+      <c r="I69" s="43"/>
+      <c r="J69" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K69" s="19" t="s">
+      <c r="K69" s="18" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2916,16 +2922,16 @@
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70"/>
-      <c r="H70" s="28" t="s">
+      <c r="H70" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="I70" s="29" t="s">
+      <c r="I70" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="J70" s="22" t="s">
+      <c r="J70" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="K70" s="19" t="s">
+      <c r="K70" s="18" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2934,12 +2940,12 @@
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="19" t="s">
+      <c r="H71" s="44"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="K71" s="19" t="s">
+      <c r="K71" s="18" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2948,26 +2954,26 @@
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="19" t="s">
+      <c r="H72" s="44"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="K72" s="19" t="s">
+      <c r="K72" s="18" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="73" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:11" ht="75" x14ac:dyDescent="0.25">
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="19" t="s">
+      <c r="H73" s="44"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="K73" s="19" t="s">
+      <c r="K73" s="18" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3051,12 +3057,22 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="D15:D22"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="I70:I73"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="I48:I53"/>
+    <mergeCell ref="I57:I62"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="I22:I28"/>
+    <mergeCell ref="I42:I46"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="I15:I21"/>
+    <mergeCell ref="I29:I41"/>
     <mergeCell ref="D58:D62"/>
     <mergeCell ref="D63:D65"/>
     <mergeCell ref="D7:D8"/>
@@ -3069,22 +3085,12 @@
     <mergeCell ref="C45:F45"/>
     <mergeCell ref="D46:D48"/>
     <mergeCell ref="D49:D57"/>
-    <mergeCell ref="I22:I28"/>
-    <mergeCell ref="I42:I46"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="I15:I21"/>
-    <mergeCell ref="I29:I41"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="I70:I73"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="I48:I53"/>
-    <mergeCell ref="I57:I62"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="D15:D22"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WIP/Users/HuyenPT/UC/List of UseCase.xlsx
+++ b/WIP/Users/HuyenPT/UC/List of UseCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="277">
   <si>
     <t>Use Case No.</t>
   </si>
@@ -76,12 +76,6 @@
   </si>
   <si>
     <t>Xóa bình luận</t>
-  </si>
-  <si>
-    <t>Follow other account</t>
-  </si>
-  <si>
-    <t>Theo dõi một tài khoản khác</t>
   </si>
   <si>
     <t>Gửi tin nhắn đến một tài khoản khác</t>
@@ -379,9 +373,6 @@
     <t>Get Notification</t>
   </si>
   <si>
-    <t>Interactions</t>
-  </si>
-  <si>
     <t>Publishers Management</t>
   </si>
   <si>
@@ -605,9 +596,6 @@
   </si>
   <si>
     <t>Follow other account to get their new post on new-feed.</t>
-  </si>
-  <si>
-    <t>Send message to other accounts.</t>
   </si>
   <si>
     <t>Report other accounts.</t>
@@ -760,9 +748,6 @@
     <t>Delete a comment</t>
   </si>
   <si>
-    <t>Send message</t>
-  </si>
-  <si>
     <t>Follow user account</t>
   </si>
   <si>
@@ -879,9 +864,6 @@
   </si>
   <si>
     <t>UC061</t>
-  </si>
-  <si>
-    <t>UC062</t>
   </si>
   <si>
     <t>Edit  group information</t>
@@ -1071,7 +1053,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1151,6 +1133,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1161,61 +1197,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1518,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:K86"/>
+  <dimension ref="C5:K85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1548,101 +1533,101 @@
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="48" t="s">
+      <c r="K5" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="H6" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-    </row>
-    <row r="7" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
+      <c r="H6" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C7" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>177</v>
+        <v>105</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>174</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" s="43" t="s">
-        <v>177</v>
+        <v>105</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>174</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C8" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="39"/>
+        <v>107</v>
+      </c>
+      <c r="D8" s="40"/>
       <c r="E8" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="43"/>
+        <v>107</v>
+      </c>
+      <c r="I8" s="30"/>
       <c r="J8" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="H9" s="44" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="47"/>
+      <c r="H9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="30" t="s">
         <v>108</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>106</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>6</v>
@@ -1651,13 +1636,13 @@
         <v>5</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="43" t="s">
-        <v>257</v>
+        <v>108</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>252</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K10" s="18" t="s">
         <v>6</v>
@@ -1665,9 +1650,9 @@
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C11" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="31"/>
+        <v>109</v>
+      </c>
+      <c r="D11" s="37"/>
       <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1675,9 +1660,9 @@
         <v>8</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" s="43"/>
+        <v>109</v>
+      </c>
+      <c r="I11" s="30"/>
       <c r="J11" s="18" t="s">
         <v>7</v>
       </c>
@@ -1687,141 +1672,141 @@
     </row>
     <row r="12" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="31"/>
+        <v>110</v>
+      </c>
+      <c r="D12" s="37"/>
       <c r="E12" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="I12" s="43"/>
+        <v>110</v>
+      </c>
+      <c r="I12" s="30"/>
       <c r="J12" s="18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="31"/>
+        <v>111</v>
+      </c>
+      <c r="D13" s="37"/>
       <c r="E13" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" s="43"/>
+        <v>111</v>
+      </c>
+      <c r="I13" s="30"/>
       <c r="J13" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="32"/>
+        <v>112</v>
+      </c>
+      <c r="D14" s="38"/>
       <c r="E14" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="I14" s="43"/>
+        <v>112</v>
+      </c>
+      <c r="I14" s="30"/>
       <c r="J14" s="18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C15" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>120</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>253</v>
+        <v>121</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>248</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="36" t="s">
-        <v>178</v>
+      <c r="C16" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="48" t="s">
+        <v>175</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="I16" s="43"/>
+        <v>122</v>
+      </c>
+      <c r="I16" s="30"/>
       <c r="J16" s="18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="35"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="37"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" s="43"/>
+        <v>123</v>
+      </c>
+      <c r="I17" s="30"/>
       <c r="J17" s="18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="34"/>
+        <v>123</v>
+      </c>
+      <c r="D18" s="35"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
@@ -1829,21 +1814,21 @@
         <v>15</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="I18" s="43"/>
+        <v>124</v>
+      </c>
+      <c r="I18" s="30"/>
       <c r="J18" s="18" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="34"/>
+        <v>124</v>
+      </c>
+      <c r="D19" s="35"/>
       <c r="E19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1851,31 +1836,31 @@
         <v>16</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="I19" s="43"/>
+        <v>125</v>
+      </c>
+      <c r="I19" s="30"/>
       <c r="J19" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="34"/>
+        <v>125</v>
+      </c>
+      <c r="D20" s="35"/>
       <c r="E20" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="I20" s="43"/>
+        <v>126</v>
+      </c>
+      <c r="I20" s="30"/>
       <c r="J20" s="18" t="s">
         <v>13</v>
       </c>
@@ -1885,9 +1870,9 @@
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="34"/>
+        <v>126</v>
+      </c>
+      <c r="D21" s="35"/>
       <c r="E21" s="5" t="s">
         <v>13</v>
       </c>
@@ -1895,21 +1880,21 @@
         <v>18</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="I21" s="43"/>
+        <v>127</v>
+      </c>
+      <c r="I21" s="30"/>
       <c r="J21" s="18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C22" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="34"/>
+        <v>127</v>
+      </c>
+      <c r="D22" s="35"/>
       <c r="E22" s="5" t="s">
         <v>14</v>
       </c>
@@ -1917,1065 +1902,1047 @@
         <v>19</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22" s="43" t="s">
-        <v>254</v>
+        <v>128</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>249</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C23" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C24" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" s="30"/>
+      <c r="J24" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C25" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="20" t="s">
+      <c r="D25" s="37"/>
+      <c r="E25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="15" t="s">
+      <c r="D26" s="37"/>
+      <c r="E26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="7" t="s">
+      <c r="I26" s="30"/>
+      <c r="J26" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C27" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="J28" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="C25" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" s="43"/>
-      <c r="J25" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25" s="18" t="s">
+      <c r="K28" s="18" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C26" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="I27" s="43"/>
-      <c r="J27" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="C28" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C29" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="I29" s="32"/>
+      <c r="J29" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="24"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
+      <c r="H30" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="I30" s="32"/>
+      <c r="J30" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="I31" s="32"/>
+      <c r="J31" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C32" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="I29" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="D32" s="35"/>
+      <c r="E32" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="24"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
-      <c r="H31" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I31" s="46"/>
-      <c r="J31" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="K31" s="21"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="H32" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" s="32"/>
+      <c r="J32" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C33" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="K32" s="18" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C33" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="5" t="s">
+      <c r="D33" s="35"/>
+      <c r="E33" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="I33" s="46"/>
+      <c r="F33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="I33" s="32"/>
       <c r="J33" s="18" t="s">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C34" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="I34" s="46"/>
+        <v>142</v>
+      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I34" s="32"/>
       <c r="J34" s="18" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C35" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="42"/>
+      <c r="E35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="I35" s="32"/>
+      <c r="J35" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="24"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="H36" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="I36" s="32"/>
+      <c r="J36" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="K36" s="21"/>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="I37" s="32"/>
+      <c r="J37" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="20" t="s">
+      <c r="D38" s="35"/>
+      <c r="E38" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="I35" s="46"/>
-      <c r="J35" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="K35" s="18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="36" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C36" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="20" t="s">
+      <c r="I38" s="32"/>
+      <c r="J38" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="24"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="7"/>
+      <c r="H39" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="I36" s="46"/>
-      <c r="J36" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="K36" s="18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="24"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="H37" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="I37" s="46"/>
-      <c r="J37" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="K37" s="21"/>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C38" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="I38" s="46"/>
-      <c r="J38" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="K38" s="18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I39" s="46"/>
-      <c r="J39" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="K39" s="18" t="s">
-        <v>205</v>
-      </c>
+      <c r="I39" s="32"/>
+      <c r="J39" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="K39" s="21"/>
     </row>
     <row r="40" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="24"/>
-      <c r="D40" s="34"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="26"/>
       <c r="F40" s="7"/>
-      <c r="H40" s="20" t="s">
+      <c r="H40" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="I40" s="33"/>
+      <c r="J40" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="K40" s="21"/>
+    </row>
+    <row r="41" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C41" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I41" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K41" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C42" s="16"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="5"/>
+      <c r="H42" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="I42" s="30"/>
+      <c r="J42" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="42"/>
+      <c r="E43" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H43" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="K40" s="21"/>
-    </row>
-    <row r="41" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="24"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="7"/>
-      <c r="H41" s="20" t="s">
+      <c r="I43" s="30"/>
+      <c r="J43" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C44" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="H44" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="I41" s="47"/>
-      <c r="J41" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="K41" s="21"/>
-    </row>
-    <row r="42" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C42" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H42" s="20" t="s">
+      <c r="I44" s="30"/>
+      <c r="J44" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K44" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C45" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H45" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="I42" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="J42" s="18" t="s">
+      <c r="I45" s="30"/>
+      <c r="J45" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K45" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C46" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="37"/>
+      <c r="E46" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="K42" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="16"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="5"/>
-      <c r="H43" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="K43" s="19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="44" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="35"/>
-      <c r="E44" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="I44" s="43"/>
-      <c r="J44" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="K44" s="18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C45" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="H45" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="I45" s="43"/>
-      <c r="J45" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="K45" s="18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="46" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C46" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="I46" s="43"/>
-      <c r="J46" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="K46" s="18" t="s">
-        <v>222</v>
-      </c>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
     </row>
     <row r="47" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="38"/>
+      <c r="E47" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="I47" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="J47" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="I48" s="30"/>
+      <c r="J48" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C49" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H47" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-    </row>
-    <row r="48" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C48" s="15" t="s">
+      <c r="D49" s="35"/>
+      <c r="E49" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="I49" s="30"/>
+      <c r="J49" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C50" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="I48" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="J48" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="K48" s="18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D49" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H49" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="I49" s="43"/>
-      <c r="J49" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="K49" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C50" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D50" s="34"/>
+      <c r="D50" s="35"/>
       <c r="E50" s="5" t="s">
         <v>100</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H50" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="I50" s="30"/>
+      <c r="J50" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="K50" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C51" s="24"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="H51" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="I51" s="30"/>
+      <c r="J51" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="K51" s="21"/>
+    </row>
+    <row r="52" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C52" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" s="35"/>
+      <c r="E52" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="I52" s="30"/>
+      <c r="J52" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="K52" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="24"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H53" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="I50" s="43"/>
-      <c r="J50" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="K50" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C51" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D51" s="34"/>
-      <c r="E51" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="H51" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="I51" s="43"/>
-      <c r="J51" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="K51" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="52" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C52" s="24"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="H52" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="I52" s="43"/>
-      <c r="J52" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="K52" s="21"/>
-    </row>
-    <row r="53" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C53" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="I53" s="43"/>
-      <c r="J53" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="K53" s="18" t="s">
-        <v>210</v>
+      <c r="I53" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="J53" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="K53" s="21" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="3:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="24"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="I54" s="43" t="s">
-        <v>119</v>
-      </c>
+      <c r="D54" s="35"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="H54" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="I54" s="30"/>
       <c r="J54" s="21" t="s">
         <v>89</v>
       </c>
       <c r="K54" s="21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="24"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="H55" s="20" t="s">
+      <c r="D55" s="35"/>
+      <c r="E55" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="I55" s="30"/>
+      <c r="J55" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="K55" s="21"/>
+    </row>
+    <row r="56" spans="3:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="42"/>
+      <c r="E56" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H56" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="I56" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="J56" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="K56" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C57" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="I57" s="30"/>
+      <c r="J57" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="K57" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" s="35"/>
+      <c r="E58" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H58" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="I55" s="43"/>
-      <c r="J55" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="K55" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="3:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="24"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="7" t="s">
+      <c r="I58" s="30"/>
+      <c r="J58" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="K58" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C59" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" s="35"/>
+      <c r="E59" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="I59" s="30"/>
+      <c r="J59" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K59" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C60" s="24"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="H60" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="I60" s="30"/>
+      <c r="J60" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="K60" s="21"/>
+    </row>
+    <row r="61" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C61" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="35"/>
+      <c r="E61" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H56" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="I56" s="43"/>
-      <c r="J56" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="K56" s="21"/>
-    </row>
-    <row r="57" spans="3:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" s="35"/>
-      <c r="E57" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H57" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="I57" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="J57" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="K57" s="18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C58" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="D58" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H58" s="20" t="s">
+      <c r="H61" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="I58" s="43"/>
-      <c r="J58" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="K58" s="18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="15" t="s">
+      <c r="I61" s="30"/>
+      <c r="J61" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="K61" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C62" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F59" s="5" t="s">
+      <c r="D62" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H59" s="20" t="s">
+      <c r="H62" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="I59" s="43"/>
-      <c r="J59" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="K59" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C60" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H60" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="I60" s="43"/>
-      <c r="J60" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K60" s="18" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C61" s="24"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="H61" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="I61" s="43"/>
-      <c r="J61" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="K61" s="21"/>
-    </row>
-    <row r="62" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C62" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H62" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="I62" s="43"/>
+      <c r="I62" s="30" t="s">
+        <v>117</v>
+      </c>
       <c r="J62" s="18" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="K62" s="18" t="s">
-        <v>63</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C63" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>117</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D63" s="37"/>
       <c r="E63" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H63" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="I63" s="43" t="s">
-        <v>120</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="I63" s="30"/>
       <c r="J63" s="18" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K63" s="18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C64" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D64" s="31"/>
+        <v>164</v>
+      </c>
+      <c r="D64" s="38"/>
       <c r="E64" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H64" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="I64" s="43"/>
+        <v>73</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="I64" s="30"/>
       <c r="J64" s="18" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="K64" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C65" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H65" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="I65" s="43"/>
+        <v>165</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="I65" s="30"/>
       <c r="J65" s="18" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C66" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D66" s="41" t="s">
-        <v>119</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D66" s="43"/>
       <c r="E66" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H66" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="I66" s="43"/>
+      <c r="H66" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="I66" s="30" t="s">
+        <v>114</v>
+      </c>
       <c r="J66" s="18" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K66" s="18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C67" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D67" s="41"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" s="41" t="s">
+        <v>115</v>
+      </c>
       <c r="E67" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H67" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="I67" s="43" t="s">
-        <v>117</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="H67" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="I67" s="30"/>
       <c r="J67" s="18" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K67" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H68" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="I68" s="30"/>
+      <c r="J68" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K68" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="3:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D68" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H68" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="I68" s="43"/>
-      <c r="J68" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="K68" s="18" t="s">
+    <row r="69" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="H69" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="I69" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="J69" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="K69" s="18" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H69" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="I69" s="43"/>
-      <c r="J69" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="K69" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:11" ht="60" x14ac:dyDescent="0.25">
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70"/>
-      <c r="H70" s="44" t="s">
-        <v>278</v>
-      </c>
-      <c r="I70" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="J70" s="21" t="s">
-        <v>267</v>
+      <c r="H70" s="29"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="18" t="s">
+        <v>263</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="71" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="43"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="30"/>
       <c r="J71" s="18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K71" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="72" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" ht="75" x14ac:dyDescent="0.25">
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="43"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="30"/>
       <c r="J72" s="18" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K72" s="18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="73" spans="3:11" ht="75" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="K73" s="18" t="s">
-        <v>226</v>
-      </c>
     </row>
     <row r="74" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C74"/>
@@ -3049,48 +3016,42 @@
       <c r="E85"/>
       <c r="F85"/>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-    </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="I70:I73"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="I48:I53"/>
-    <mergeCell ref="I57:I62"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="I22:I28"/>
-    <mergeCell ref="I42:I46"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="I15:I21"/>
-    <mergeCell ref="I29:I41"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="D38:D44"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="D29:D36"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="D49:D57"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="D10:D14"/>
     <mergeCell ref="D15:D22"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D37:D43"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="D28:D35"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="D48:D56"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="I41:I45"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="I15:I21"/>
+    <mergeCell ref="I28:I40"/>
+    <mergeCell ref="H69:H72"/>
+    <mergeCell ref="I69:I72"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="I47:I52"/>
+    <mergeCell ref="I56:I61"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="I53:I55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
